--- a/tests/test1/d10/ЛМ, 1.0.xlsx
+++ b/tests/test1/d10/ЛМ, 1.0.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.004533100000003287</v>
+        <v>0.01254009999999539</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.00307619999999531</v>
+        <v>0.009861299999997186</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002101999999993609</v>
+        <v>0.007495599999998603</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.005905900000001907</v>
+        <v>0.006742399999993154</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.005546800000004737</v>
+        <v>0.00611759999999606</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.00242269999999678</v>
+        <v>0.003328800000005572</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.008217199999990044</v>
+        <v>0.005865999999997484</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002121700000003557</v>
+        <v>0.002081199999992123</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.006695300000004067</v>
+        <v>0.00691379999999242</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001843199999996159</v>
+        <v>0.001730600000001914</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.005054799999996362</v>
+        <v>0.004984899999996628</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002103199999993421</v>
+        <v>0.001996699999992302</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002177099999997267</v>
+        <v>0.001962999999989279</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.005182000000004905</v>
+        <v>0.005025400000008062</v>
       </c>
       <c r="Y15" t="n">
         <v>22</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.006002599999987979</v>
+        <v>0.006134399999993434</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.004980500000002053</v>
+        <v>0.006570500000009361</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002120300000001407</v>
+        <v>0.002292300000007685</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002391299999999319</v>
+        <v>0.002273900000005824</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.006530300000008538</v>
+        <v>0.008204500000005055</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002100900000002071</v>
+        <v>0.002052500000004898</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.005521599999994464</v>
+        <v>0.00491179999998792</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001882399999999507</v>
+        <v>0.00180310000000361</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002502899999996089</v>
+        <v>0.001979700000006801</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.007106200000009721</v>
+        <v>0.004384799999996858</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.009093100000001186</v>
+        <v>0.006987300000005803</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.00925990000000354</v>
+        <v>0.005430399999994506</v>
       </c>
       <c r="Y27" t="n">
         <v>25</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.004729499999996278</v>
+        <v>0.003619799999995621</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003309899999990762</v>
+        <v>0.003337299999998322</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.007669699999993895</v>
+        <v>0.005083900000002473</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.01184049999999104</v>
+        <v>0.009025300000004677</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.004970599999992942</v>
+        <v>0.008336700000000974</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002415800000008517</v>
+        <v>0.002267200000005687</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.008360000000010359</v>
+        <v>0.007621400000004996</v>
       </c>
       <c r="Y34" t="n">
         <v>27</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.00232719999999631</v>
+        <v>0.002321299999991311</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002259999999992601</v>
+        <v>0.001815899999996873</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.003032000000004587</v>
+        <v>0.002868000000006532</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.007616200000001072</v>
+        <v>0.007539500000007138</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.005732899999998153</v>
+        <v>0.00904969999999139</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002989099999993527</v>
+        <v>0.002835500000003321</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.004488800000004289</v>
+        <v>0.004331399999998098</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002205599999996366</v>
+        <v>0.002019899999993413</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002172599999994418</v>
+        <v>0.002119300000003932</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.003137099999989346</v>
+        <v>0.002833699999996497</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002099299999997584</v>
+        <v>0.003278499999993301</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.004096799999999234</v>
+        <v>0.00383420000000001</v>
       </c>
       <c r="Y46" t="n">
         <v>17</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.00637950000000842</v>
+        <v>0.005803399999990688</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.005952199999995855</v>
+        <v>0.006753700000004415</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.003914600000001656</v>
+        <v>0.002091300000003571</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001836000000011495</v>
+        <v>0.001821100000000797</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002053000000003635</v>
+        <v>0.002054499999999848</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002974599999987504</v>
+        <v>0.005022700000012037</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003680000000002792</v>
+        <v>0.003207700000004365</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.00337509999999952</v>
+        <v>0.005005400000001714</v>
       </c>
       <c r="Y54" t="n">
         <v>14</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.007782900000009363</v>
+        <v>0.005809599999992088</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002358200000003308</v>
+        <v>0.0022689999999983</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.00306430000000546</v>
+        <v>0.002066200000001572</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.005725800000007553</v>
+        <v>0.007256699999999228</v>
       </c>
       <c r="Y58" t="n">
         <v>25</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.00385059999999271</v>
+        <v>0.001994199999998614</v>
       </c>
       <c r="Y59" t="n">
         <v>8</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002372300000004657</v>
+        <v>0.0027603000000056</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.006299499999997238</v>
+        <v>0.004373299999997471</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002141399999999294</v>
+        <v>0.002167900000003442</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.006421900000006531</v>
+        <v>0.004557099999999537</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.002221099999999865</v>
+        <v>0.002093000000002121</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.006045199999988426</v>
+        <v>0.004080999999999335</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002345700000006445</v>
+        <v>0.002451199999995879</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.00344009999999173</v>
+        <v>0.001987999999997214</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002108999999990147</v>
+        <v>0.003872299999997608</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.006407400000000507</v>
+        <v>0.004216499999998291</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002113199999996596</v>
+        <v>0.003890400000003069</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.004308499999993387</v>
+        <v>0.002210899999994353</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.005887299999997708</v>
+        <v>0.007604499999999348</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002178199999988806</v>
+        <v>0.002002399999994964</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002118000000010056</v>
+        <v>0.001996700000006513</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.006786399999995751</v>
+        <v>0.004703599999999142</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002402599999996369</v>
+        <v>0.002409200000002443</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.00415629999999112</v>
+        <v>0.002622000000002345</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002358900000004382</v>
+        <v>0.00244389999998873</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.00725649999999689</v>
+        <v>0.00513300000000072</v>
       </c>
       <c r="Y79" t="n">
         <v>24</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002104199999990897</v>
+        <v>0.002111499999998045</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003772999999995363</v>
+        <v>0.003399799999996844</v>
       </c>
       <c r="Y81" t="n">
         <v>15</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.004443499999993605</v>
+        <v>0.005427900000000818</v>
       </c>
       <c r="Y82" t="n">
         <v>19</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002428600000001779</v>
+        <v>0.002278300000000399</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002340200000006121</v>
+        <v>0.002464400000008027</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002546399999999949</v>
+        <v>0.002260100000000875</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001856399999994096</v>
+        <v>0.003031300000003512</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.006612500000002797</v>
+        <v>0.005079999999992424</v>
       </c>
       <c r="Y87" t="n">
         <v>22</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002115600000010431</v>
+        <v>0.003508499999995252</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.006724000000005503</v>
+        <v>0.0052866999999992</v>
       </c>
       <c r="Y89" t="n">
         <v>22</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.00512280000000942</v>
+        <v>0.005902700000007144</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002983299999996802</v>
+        <v>0.002842200000003459</v>
       </c>
       <c r="Y91" t="n">
         <v>12</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002110999999999308</v>
+        <v>0.002078900000000772</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002114699999992808</v>
+        <v>0.002032800000009161</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.00551890000001265</v>
+        <v>0.006848599999997873</v>
       </c>
       <c r="Y94" t="n">
         <v>24</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.005152000000009593</v>
+        <v>0.004748899999995615</v>
       </c>
       <c r="Y95" t="n">
         <v>22</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.007061799999988239</v>
+        <v>0.005034899999998288</v>
       </c>
       <c r="Y96" t="n">
         <v>23</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002099399999991647</v>
+        <v>0.002000199999997676</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002352799999997046</v>
+        <v>0.002609899999995946</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.005491599999999153</v>
+        <v>0.008452399999995919</v>
       </c>
       <c r="Y99" t="n">
         <v>24</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.007657700000009982</v>
+        <v>0.005574299999992149</v>
       </c>
       <c r="Y100" t="n">
         <v>26</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.005091900000010696</v>
+        <v>0.004790499999998588</v>
       </c>
       <c r="Y101" t="n">
         <v>22</v>

--- a/tests/test1/d10/ЛМ, 1.0.xlsx
+++ b/tests/test1/d10/ЛМ, 1.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.01254009999999539</v>
+        <v>0.008011600000003227</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.009861299999997186</v>
+        <v>0.008844100000004573</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.007495599999998603</v>
+        <v>0.004314600000014934</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.006742399999993154</v>
+        <v>0.006509600000015325</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.00611759999999606</v>
+        <v>0.006291500000003225</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.003328800000005572</v>
+        <v>0.004353499999979249</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.005865999999997484</v>
+        <v>0.00715759999999932</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.002081199999992123</v>
+        <v>0.00225659999998129</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.00691379999999242</v>
+        <v>0.005793199999999388</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001730600000001914</v>
+        <v>0.002426299999996218</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.004984899999996628</v>
+        <v>0.00370709999998553</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.001996699999992302</v>
+        <v>0.003452699999996867</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.001962999999989279</v>
+        <v>0.002318599999995286</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.005025400000008062</v>
+        <v>0.006104200000009996</v>
       </c>
       <c r="Y15" t="n">
         <v>22</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.006134399999993434</v>
+        <v>0.004727500000001328</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.006570500000009361</v>
+        <v>0.00513469999998506</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002292300000007685</v>
+        <v>0.002176499999990256</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002273900000005824</v>
+        <v>0.002508799999986877</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.008204500000005055</v>
+        <v>0.006321799999994937</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002052500000004898</v>
+        <v>0.002421900000001642</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.00491179999998792</v>
+        <v>0.005696999999997843</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.00180310000000361</v>
+        <v>0.00208220000001802</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001979700000006801</v>
+        <v>0.002329900000006546</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.004384799999996858</v>
+        <v>0.004789999999985639</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.006987300000005803</v>
+        <v>0.008339000000006536</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.005430399999994506</v>
+        <v>0.006011599999993678</v>
       </c>
       <c r="Y27" t="n">
         <v>25</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.003619799999995621</v>
+        <v>0.002432499999997617</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003337299999998322</v>
+        <v>0.003329999999976962</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.005083900000002473</v>
+        <v>0.005859000000015158</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.009025300000004677</v>
+        <v>0.007455200000009654</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.008336700000000974</v>
+        <v>0.005045299999977715</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002267200000005687</v>
+        <v>0.002646599999991395</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.007621400000004996</v>
+        <v>0.006389399999989109</v>
       </c>
       <c r="Y34" t="n">
         <v>27</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002321299999991311</v>
+        <v>0.002438499999982469</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001815899999996873</v>
+        <v>0.001907600000009779</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002868000000006532</v>
+        <v>0.003798599999981889</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.007539500000007138</v>
+        <v>0.00634560000000306</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.00904969999999139</v>
+        <v>0.006010300000014013</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002835500000003321</v>
+        <v>0.004174000000006117</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.004331399999998098</v>
+        <v>0.004645299999992858</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.002019899999993413</v>
+        <v>0.00293970000001309</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002119300000003932</v>
+        <v>0.00219440000000759</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002833699999996497</v>
+        <v>0.00394099999999753</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.003278499999993301</v>
+        <v>0.002183899999977257</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.00383420000000001</v>
+        <v>0.004893799999990733</v>
       </c>
       <c r="Y46" t="n">
         <v>17</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.005803399999990688</v>
+        <v>0.006538599999998951</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.006753700000004415</v>
+        <v>0.006457699999998567</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002091300000003571</v>
+        <v>0.002170400000011341</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001821100000000797</v>
+        <v>0.001973399999997127</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002054499999999848</v>
+        <v>0.002299700000008897</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.005022700000012037</v>
+        <v>0.003565099999974564</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003207700000004365</v>
+        <v>0.003507200000001376</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.005005400000001714</v>
+        <v>0.003898300000003019</v>
       </c>
       <c r="Y54" t="n">
         <v>14</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.005809599999992088</v>
+        <v>0.006337700000017321</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.0022689999999983</v>
+        <v>0.002633699999989858</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002066200000001572</v>
+        <v>0.002208200000012539</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.007256699999999228</v>
+        <v>0.006610299999977087</v>
       </c>
       <c r="Y58" t="n">
         <v>25</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001994199999998614</v>
+        <v>0.002209999999990941</v>
       </c>
       <c r="Y59" t="n">
         <v>8</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.0027603000000056</v>
+        <v>0.002495499999980666</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.004373299999997471</v>
+        <v>0.004921700000011242</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002167900000003442</v>
+        <v>0.002284500000001799</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.004557099999999537</v>
+        <v>0.005076099999996586</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.002093000000002121</v>
+        <v>0.002186300000005303</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.004080999999999335</v>
+        <v>0.004495499999990216</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002451199999995879</v>
+        <v>0.005368600000025481</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.001987999999997214</v>
+        <v>0.002365099999991571</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.003872299999997608</v>
+        <v>0.002329000000003134</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.004216499999998291</v>
+        <v>0.006396800000004532</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.003890400000003069</v>
+        <v>0.002354200000013407</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002210899999994353</v>
+        <v>0.003389299999980722</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.007604499999999348</v>
+        <v>0.006284700000009025</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002002399999994964</v>
+        <v>0.0022523000000092</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001996700000006513</v>
+        <v>0.002358799999996108</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.004703599999999142</v>
+        <v>0.007236199999994142</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002409200000002443</v>
+        <v>0.003292999999985113</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002622000000002345</v>
+        <v>0.004923600000012129</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.00244389999998873</v>
+        <v>0.00290440000000558</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.00513300000000072</v>
+        <v>0.00593620000000783</v>
       </c>
       <c r="Y79" t="n">
         <v>24</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002111499999998045</v>
+        <v>0.002889600000003156</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003399799999996844</v>
+        <v>0.003922499999987394</v>
       </c>
       <c r="Y81" t="n">
         <v>15</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.005427900000000818</v>
+        <v>0.004941099999996368</v>
       </c>
       <c r="Y82" t="n">
         <v>19</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002278300000000399</v>
+        <v>0.002538700000002336</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002464400000008027</v>
+        <v>0.004191500000018777</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002260100000000875</v>
+        <v>0.005260599999985516</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.003031300000003512</v>
+        <v>0.00205170000000976</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.005079999999992424</v>
+        <v>0.007864800000021432</v>
       </c>
       <c r="Y87" t="n">
         <v>22</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003508499999995252</v>
+        <v>0.003755299999994577</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.0052866999999992</v>
+        <v>0.007438000000007605</v>
       </c>
       <c r="Y89" t="n">
         <v>22</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.005902700000007144</v>
+        <v>0.005678399999993644</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002842200000003459</v>
+        <v>0.003808100000014747</v>
       </c>
       <c r="Y91" t="n">
         <v>12</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002078900000000772</v>
+        <v>0.002292600000004086</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002032800000009161</v>
+        <v>0.002589000000000397</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.006848599999997873</v>
+        <v>0.005810400000001437</v>
       </c>
       <c r="Y94" t="n">
         <v>24</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.004748899999995615</v>
+        <v>0.005396999999987884</v>
       </c>
       <c r="Y95" t="n">
         <v>22</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.005034899999998288</v>
+        <v>0.006874199999998609</v>
       </c>
       <c r="Y96" t="n">
         <v>23</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002000199999997676</v>
+        <v>0.00231560000000286</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002609899999995946</v>
+        <v>0.004129699999992908</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.008452399999995919</v>
+        <v>0.007832799999988538</v>
       </c>
       <c r="Y99" t="n">
         <v>24</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.005574299999992149</v>
+        <v>0.006589200000007622</v>
       </c>
       <c r="Y100" t="n">
         <v>26</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.004790499999998588</v>
+        <v>0.006148099999990109</v>
       </c>
       <c r="Y101" t="n">
         <v>22</v>

--- a/tests/test1/d10/ЛМ, 1.0.xlsx
+++ b/tests/test1/d10/ЛМ, 1.0.xlsx
@@ -582,13 +582,13 @@
         <v>359.7768449761248</v>
       </c>
       <c r="F2" t="n">
-        <v>10.27143546520006</v>
+        <v>10.27143546520007</v>
       </c>
       <c r="G2" t="n">
         <v>98.96529779397912</v>
       </c>
       <c r="H2" t="n">
-        <v>12.09874079544965</v>
+        <v>12.09874079544968</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>70.78441302877984</v>
       </c>
       <c r="P2" t="n">
-        <v>16.38439006637454</v>
+        <v>16.38439006637457</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03006024772138634</v>
+        <v>0.03006024772138595</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4304674357852819</v>
+        <v>0.4304674357852315</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6831509535773503</v>
+        <v>0.6831509535772798</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1624342573100924</v>
+        <v>0.1624342573100719</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9990188106672987</v>
+        <v>0.9990188106672991</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2325998114312222</v>
+        <v>0.2325998114312309</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.008011600000003227</v>
+        <v>0.003753900000001309</v>
       </c>
       <c r="Y2" t="n">
         <v>19</v>
@@ -664,7 +664,7 @@
         <v>0.05395664984447295</v>
       </c>
       <c r="F3" t="n">
-        <v>9.667516792984337</v>
+        <v>9.667516792984333</v>
       </c>
       <c r="G3" t="n">
         <v>74.69863040746563</v>
@@ -694,25 +694,25 @@
         <v>52.98936926300751</v>
       </c>
       <c r="P3" t="n">
-        <v>17.54519473675493</v>
+        <v>17.54519473675492</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02703963829516633</v>
+        <v>0.0270396382951657</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2914922168387459</v>
+        <v>0.29149221683872</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4670937975243329</v>
+        <v>0.4670937975242911</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1108453486160278</v>
+        <v>0.1108453486160243</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9941016863826395</v>
+        <v>0.9941016863826391</v>
       </c>
       <c r="V3" t="n">
-        <v>0.2468953065225815</v>
+        <v>0.2468953065225836</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.008844100000004573</v>
+        <v>0.00300060000000002</v>
       </c>
       <c r="Y3" t="n">
         <v>12</v>
@@ -749,10 +749,10 @@
         <v>10.07420016827352</v>
       </c>
       <c r="G4" t="n">
-        <v>81.66382810794612</v>
+        <v>81.66382810794614</v>
       </c>
       <c r="H4" t="n">
-        <v>3.193710270604347</v>
+        <v>3.193710270604346</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,25 +776,25 @@
         <v>31.90018368623332</v>
       </c>
       <c r="P4" t="n">
-        <v>9.439011584733718</v>
+        <v>9.439011584733716</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02293947296180561</v>
+        <v>0.02293947296180572</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1413217489846208</v>
+        <v>0.1413217489846172</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1304977331648633</v>
+        <v>0.130497733164862</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1287508150474574</v>
+        <v>0.1287508150474582</v>
       </c>
       <c r="U4" t="n">
-        <v>1.054783263591831</v>
+        <v>1.05478326359183</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2323851944873326</v>
+        <v>0.2323851944873332</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.004314600000014934</v>
+        <v>0.001721199999998646</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -828,13 +828,13 @@
         <v>0.2110825244516389</v>
       </c>
       <c r="F5" t="n">
-        <v>9.821235487418443</v>
+        <v>9.82123548741845</v>
       </c>
       <c r="G5" t="n">
         <v>99.37669126999621</v>
       </c>
       <c r="H5" t="n">
-        <v>11.08657031392311</v>
+        <v>11.08657031392312</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -858,25 +858,25 @@
         <v>70.63587726932727</v>
       </c>
       <c r="P5" t="n">
-        <v>15.19217548976953</v>
+        <v>15.19217548976954</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.02668167042475083</v>
+        <v>0.02668167042474811</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3852646071670962</v>
+        <v>0.385264607166994</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6009929134552048</v>
+        <v>0.6009929134550468</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1486394013775438</v>
+        <v>0.1486394013775086</v>
       </c>
       <c r="U5" t="n">
         <v>1.045821393245179</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1534317876959342</v>
+        <v>0.1534317876959304</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.006509600000015325</v>
+        <v>0.004110100000000116</v>
       </c>
       <c r="Y5" t="n">
         <v>19</v>
@@ -916,7 +916,7 @@
         <v>173.8277355979066</v>
       </c>
       <c r="H6" t="n">
-        <v>9.762600066126144</v>
+        <v>9.762600066126142</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>149.471429084662</v>
       </c>
       <c r="P6" t="n">
-        <v>4.761595892688743</v>
+        <v>4.761595892688741</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01045938003420001</v>
+        <v>0.01045938003420003</v>
       </c>
       <c r="R6" t="n">
         <v>0.1255694965189405</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03988688231869555</v>
+        <v>0.03988688231869552</v>
       </c>
       <c r="T6" t="n">
         <v>0.1531378473446088</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9390620674687137</v>
+        <v>0.9390620674687132</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1469083663010826</v>
+        <v>0.1469083663010815</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.006291500000003225</v>
+        <v>0.00437780000000032</v>
       </c>
       <c r="Y6" t="n">
         <v>24</v>
@@ -992,13 +992,13 @@
         <v>359.8333946319512</v>
       </c>
       <c r="F7" t="n">
-        <v>10.17592127994552</v>
+        <v>10.17592127994551</v>
       </c>
       <c r="G7" t="n">
-        <v>40.17179750142029</v>
+        <v>40.17179750142028</v>
       </c>
       <c r="H7" t="n">
-        <v>13.89766437389467</v>
+        <v>13.89766437389466</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>30.37362924581104</v>
       </c>
       <c r="P7" t="n">
-        <v>23.53274130615203</v>
+        <v>23.53274130615202</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0300916806858366</v>
+        <v>0.03009168068583696</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2948235016154194</v>
+        <v>0.2948235016154411</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3821434644734847</v>
+        <v>0.3821434644735167</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3786405669076855</v>
+        <v>0.3786405669077078</v>
       </c>
       <c r="U7" t="n">
         <v>0.959640718547745</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1594324278706078</v>
+        <v>0.1594324278706047</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.004353499999979249</v>
+        <v>0.001741500000001395</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1074,13 +1074,13 @@
         <v>359.7591792398412</v>
       </c>
       <c r="F8" t="n">
-        <v>10.59856259014967</v>
+        <v>10.59856259014969</v>
       </c>
       <c r="G8" t="n">
         <v>159.3561221731348</v>
       </c>
       <c r="H8" t="n">
-        <v>7.621393166554616</v>
+        <v>7.621393166554642</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>97.54651595257081</v>
       </c>
       <c r="P8" t="n">
-        <v>4.388299615095801</v>
+        <v>4.388299615095818</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02937493113110912</v>
+        <v>0.02937493113116855</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4532215599461493</v>
+        <v>0.45322155994737</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2791103680113101</v>
+        <v>0.279110368012053</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4076684925220764</v>
+        <v>0.4076684925231741</v>
       </c>
       <c r="U8" t="n">
-        <v>0.9274643583660201</v>
+        <v>0.9274643583660206</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4537010364461805</v>
+        <v>0.4537010364461986</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.00715759999999932</v>
+        <v>0.005866100000000429</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
@@ -1156,7 +1156,7 @@
         <v>0.1260262014187046</v>
       </c>
       <c r="F9" t="n">
-        <v>9.626572377487593</v>
+        <v>9.626572377487591</v>
       </c>
       <c r="G9" t="n">
         <v>13.20122829902242</v>
@@ -1189,22 +1189,22 @@
         <v>21.11106168957779</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02587090836338688</v>
+        <v>0.02587090836338706</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2975886721731391</v>
+        <v>0.29758867217314</v>
       </c>
       <c r="S9" t="n">
-        <v>0.150164126938158</v>
+        <v>0.1501641269381604</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5187867642828387</v>
+        <v>0.518786764282845</v>
       </c>
       <c r="U9" t="n">
-        <v>0.9491298976248268</v>
+        <v>0.9491298976248271</v>
       </c>
       <c r="V9" t="n">
-        <v>0.2765953877097018</v>
+        <v>0.2765953877097025</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.00225659999998129</v>
+        <v>0.001594200000001322</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1238,13 +1238,13 @@
         <v>359.9771562666703</v>
       </c>
       <c r="F10" t="n">
-        <v>9.89002387195247</v>
+        <v>9.890023871952467</v>
       </c>
       <c r="G10" t="n">
         <v>157.1838779161402</v>
       </c>
       <c r="H10" t="n">
-        <v>14.43628450243154</v>
+        <v>14.43628450243153</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1271,22 +1271,22 @@
         <v>11.73678352706638</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01285684641458212</v>
+        <v>0.01285684641458209</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1682649196747117</v>
+        <v>0.1682649196746848</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1409540952216725</v>
+        <v>0.1409540952216511</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2703624648268302</v>
+        <v>0.2703624648267871</v>
       </c>
       <c r="U10" t="n">
         <v>1.094248772140954</v>
       </c>
       <c r="V10" t="n">
-        <v>0.05920559040957871</v>
+        <v>0.05920559040958122</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.005793199999999388</v>
+        <v>0.004326400000000064</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
@@ -1353,16 +1353,16 @@
         <v>18.24576376713277</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02167453203404755</v>
+        <v>0.02167453203404743</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4346034448925336</v>
+        <v>0.4346034448925307</v>
       </c>
       <c r="S11" t="n">
-        <v>0.08042877906210276</v>
+        <v>0.0804287790621027</v>
       </c>
       <c r="T11" t="n">
-        <v>0.704080454885095</v>
+        <v>0.704080454885087</v>
       </c>
       <c r="U11" t="n">
         <v>1.047047494573528</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.002426299999996218</v>
+        <v>0.001489599999999314</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1405,7 +1405,7 @@
         <v>9.99670799022195</v>
       </c>
       <c r="G12" t="n">
-        <v>138.8641750441909</v>
+        <v>138.8641750441908</v>
       </c>
       <c r="H12" t="n">
         <v>3.260475029282677</v>
@@ -1429,28 +1429,28 @@
         <v>5.809547132347129</v>
       </c>
       <c r="O12" t="n">
-        <v>40.09818849832134</v>
+        <v>40.09818849832135</v>
       </c>
       <c r="P12" t="n">
         <v>5.795968691671005</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02094539323396572</v>
+        <v>0.02094539323396636</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1106152996092183</v>
+        <v>0.1106152996092184</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1013260156106997</v>
+        <v>0.1013260156107036</v>
       </c>
       <c r="T12" t="n">
-        <v>0.07348716163223225</v>
+        <v>0.07348716163223244</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8897667978980109</v>
+        <v>0.8897667978980101</v>
       </c>
       <c r="V12" t="n">
-        <v>0.03039985018596817</v>
+        <v>0.03039985018596675</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.00370709999998553</v>
+        <v>0.002481799999999978</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -1484,13 +1484,13 @@
         <v>0.05553900257981469</v>
       </c>
       <c r="F13" t="n">
-        <v>9.692069475919045</v>
+        <v>9.692069475919043</v>
       </c>
       <c r="G13" t="n">
-        <v>30.58512534896959</v>
+        <v>30.58512534896956</v>
       </c>
       <c r="H13" t="n">
-        <v>3.122044097648933</v>
+        <v>3.122044097648934</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1517,19 +1517,19 @@
         <v>10.7532869233522</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02118619546765454</v>
+        <v>0.02118619546765399</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1584023942697328</v>
+        <v>0.1584023942697331</v>
       </c>
       <c r="S13" t="n">
-        <v>0.09009938876837544</v>
+        <v>0.09009938876837204</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2370766363735745</v>
+        <v>0.237076636373566</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9625839246606828</v>
+        <v>0.9625839246606829</v>
       </c>
       <c r="V13" t="n">
         <v>0.2643012339101485</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.003452699999996867</v>
+        <v>0.00158200000000086</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1593,28 +1593,28 @@
         <v>21.47093508922593</v>
       </c>
       <c r="O14" t="n">
-        <v>21.43039487232481</v>
+        <v>21.43039487232483</v>
       </c>
       <c r="P14" t="n">
         <v>22.42892779331887</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02907738024106106</v>
+        <v>0.0290773802410614</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2776672239558479</v>
+        <v>0.2776672239558455</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2585217698585634</v>
+        <v>0.2585217698585665</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4249471804320076</v>
+        <v>0.4249471804320163</v>
       </c>
       <c r="U14" t="n">
         <v>1.007253704187153</v>
       </c>
       <c r="V14" t="n">
-        <v>0.2347792432956199</v>
+        <v>0.2347792432956203</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002318599999995286</v>
+        <v>0.001685900000000018</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1654,7 +1654,7 @@
         <v>139.7680343140593</v>
       </c>
       <c r="H15" t="n">
-        <v>5.963445054842217</v>
+        <v>5.963445054842214</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1678,25 +1678,25 @@
         <v>70.67453751007328</v>
       </c>
       <c r="P15" t="n">
-        <v>6.136672249696935</v>
+        <v>6.136672249696931</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02414649323418685</v>
+        <v>0.02414649323418758</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2308871271786349</v>
+        <v>0.2308871271786357</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2057461546019586</v>
+        <v>0.2057461546019618</v>
       </c>
       <c r="T15" t="n">
-        <v>0.1380842224071263</v>
+        <v>0.1380842224071259</v>
       </c>
       <c r="U15" t="n">
         <v>0.8771286979988751</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1130906877196036</v>
+        <v>0.1130906877196015</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.006104200000009996</v>
+        <v>0.003889299999999096</v>
       </c>
       <c r="Y15" t="n">
         <v>22</v>
@@ -1730,13 +1730,13 @@
         <v>0.1787774955394142</v>
       </c>
       <c r="F16" t="n">
-        <v>9.779877884450697</v>
+        <v>9.779877884450686</v>
       </c>
       <c r="G16" t="n">
         <v>92.17445268392939</v>
       </c>
       <c r="H16" t="n">
-        <v>11.97894101019503</v>
+        <v>11.97894101019501</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1760,25 +1760,25 @@
         <v>66.96582471840833</v>
       </c>
       <c r="P16" t="n">
-        <v>16.91386301539357</v>
+        <v>16.91386301539355</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02718946124433042</v>
+        <v>0.02718946124433316</v>
       </c>
       <c r="R16" t="n">
-        <v>0.380866443375867</v>
+        <v>0.3808664433759716</v>
       </c>
       <c r="S16" t="n">
-        <v>0.6391264381704603</v>
+        <v>0.6391264381706355</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1009529165566576</v>
+        <v>0.1009529165566754</v>
       </c>
       <c r="U16" t="n">
         <v>1.038014880456845</v>
       </c>
       <c r="V16" t="n">
-        <v>0.1161057927656796</v>
+        <v>0.1161057927656857</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.004727500000001328</v>
+        <v>0.004548200000000335</v>
       </c>
       <c r="Y16" t="n">
         <v>19</v>
@@ -1845,16 +1845,16 @@
         <v>4.38388789052865</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02210510723795966</v>
+        <v>0.022105107237961</v>
       </c>
       <c r="R17" t="n">
-        <v>0.165634596946223</v>
+        <v>0.1656345969462415</v>
       </c>
       <c r="S17" t="n">
-        <v>0.136344537881157</v>
+        <v>0.1363445378811717</v>
       </c>
       <c r="T17" t="n">
-        <v>0.09257018796764231</v>
+        <v>0.09257018796765148</v>
       </c>
       <c r="U17" t="n">
         <v>1.001657916286923</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.00513469999998506</v>
+        <v>0.003795099999999607</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
@@ -1894,13 +1894,13 @@
         <v>0.09506905401253557</v>
       </c>
       <c r="F18" t="n">
-        <v>9.611950045663667</v>
+        <v>9.611950045663665</v>
       </c>
       <c r="G18" t="n">
-        <v>39.85317277622408</v>
+        <v>39.85317277622406</v>
       </c>
       <c r="H18" t="n">
-        <v>8.605216884864211</v>
+        <v>8.605216884864213</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1927,22 +1927,22 @@
         <v>16.84018030952606</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02574704972535187</v>
+        <v>0.02574704972535162</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2052602748701669</v>
+        <v>0.2052602748701698</v>
       </c>
       <c r="S18" t="n">
-        <v>0.2163170635307833</v>
+        <v>0.2163170635307856</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2502366138010995</v>
+        <v>0.250236613801098</v>
       </c>
       <c r="U18" t="n">
-        <v>0.8511604807055781</v>
+        <v>0.8511604807055785</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3261691836916499</v>
+        <v>0.3261691836916498</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002176499999990256</v>
+        <v>0.002104499999999732</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1976,13 +1976,13 @@
         <v>359.8355192797434</v>
       </c>
       <c r="F19" t="n">
-        <v>9.862164156628873</v>
+        <v>9.862164156628875</v>
       </c>
       <c r="G19" t="n">
-        <v>52.39014481503146</v>
+        <v>52.39014481503147</v>
       </c>
       <c r="H19" t="n">
-        <v>9.470777232316804</v>
+        <v>9.4707772323168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2006,25 +2006,25 @@
         <v>35.57932685227636</v>
       </c>
       <c r="P19" t="n">
-        <v>17.43683887595861</v>
+        <v>17.4368388759586</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02712571044374994</v>
+        <v>0.02712571044374975</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2312852647904374</v>
+        <v>0.2312852647904448</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2920350362474962</v>
+        <v>0.2920350362475028</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2112323676695946</v>
+        <v>0.2112323676695937</v>
       </c>
       <c r="U19" t="n">
         <v>1.030824179702992</v>
       </c>
       <c r="V19" t="n">
-        <v>0.0701271211424771</v>
+        <v>0.07012712114247546</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002508799999986877</v>
+        <v>0.001977500000000632</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2058,13 +2058,13 @@
         <v>359.6758786999721</v>
       </c>
       <c r="F20" t="n">
-        <v>10.44971652126448</v>
+        <v>10.44971652126447</v>
       </c>
       <c r="G20" t="n">
         <v>116.7982872516722</v>
       </c>
       <c r="H20" t="n">
-        <v>9.760210427962445</v>
+        <v>9.760210427962436</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2085,28 +2085,28 @@
         <v>11.12685015605182</v>
       </c>
       <c r="O20" t="n">
-        <v>77.55357489432592</v>
+        <v>77.55357489432591</v>
       </c>
       <c r="P20" t="n">
         <v>11.84404819459037</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02988186677201826</v>
+        <v>0.02988186677201631</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4172651956535205</v>
+        <v>0.4172651956534519</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5184294487635195</v>
+        <v>0.5184294487634397</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2567426977576152</v>
+        <v>0.2567426977575719</v>
       </c>
       <c r="U20" t="n">
-        <v>1.022568007549643</v>
+        <v>1.022568007549644</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3523904311748501</v>
+        <v>0.3523904311748395</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.006321799999994937</v>
+        <v>0.004062199999999905</v>
       </c>
       <c r="Y20" t="n">
         <v>22</v>
@@ -2140,7 +2140,7 @@
         <v>359.990822622813</v>
       </c>
       <c r="F21" t="n">
-        <v>9.834710031887342</v>
+        <v>9.834710031887344</v>
       </c>
       <c r="G21" t="n">
         <v>17.36988966548842</v>
@@ -2170,25 +2170,25 @@
         <v>14.6724766611353</v>
       </c>
       <c r="P21" t="n">
-        <v>22.08575222738206</v>
+        <v>22.08575222738207</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02713080524583095</v>
+        <v>0.02713080524583094</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2874197185850025</v>
+        <v>0.2874197185850029</v>
       </c>
       <c r="S21" t="n">
-        <v>0.184307424785811</v>
+        <v>0.1843074247858108</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4946384073887831</v>
+        <v>0.4946384073887817</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9646528327675884</v>
+        <v>0.9646528327675882</v>
       </c>
       <c r="V21" t="n">
-        <v>0.06079203221359607</v>
+        <v>0.06079203221359671</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002421900000001642</v>
+        <v>0.002469800000000077</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2219,16 +2219,16 @@
         <v>13.77256473491301</v>
       </c>
       <c r="E22" t="n">
-        <v>0.148618966373421</v>
+        <v>0.1486189663734337</v>
       </c>
       <c r="F22" t="n">
-        <v>9.557569361659276</v>
+        <v>9.557569361659267</v>
       </c>
       <c r="G22" t="n">
-        <v>105.7706299279194</v>
+        <v>105.7706299279193</v>
       </c>
       <c r="H22" t="n">
-        <v>12.92017711377567</v>
+        <v>12.92017711377566</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2252,25 +2252,25 @@
         <v>80.39467220209065</v>
       </c>
       <c r="P22" t="n">
-        <v>16.34498783278598</v>
+        <v>16.34498783278596</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02727185534304406</v>
+        <v>0.0272718553430388</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4883627123686526</v>
+        <v>0.4883627123684419</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8390033194341853</v>
+        <v>0.8390033194338251</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2916905044863752</v>
+        <v>0.2916905044862512</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9432494848850994</v>
+        <v>0.9432494848850997</v>
       </c>
       <c r="V22" t="n">
-        <v>0.268039894759231</v>
+        <v>0.2680398947592377</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.005696999999997843</v>
+        <v>0.00405980000000028</v>
       </c>
       <c r="Y22" t="n">
         <v>22</v>
@@ -2310,7 +2310,7 @@
         <v>9.914309952051383</v>
       </c>
       <c r="H23" t="n">
-        <v>6.951432291434209</v>
+        <v>6.951432291434208</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2334,25 +2334,25 @@
         <v>9.221702574074369</v>
       </c>
       <c r="P23" t="n">
-        <v>16.09688309731966</v>
+        <v>16.09688309731965</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0230684166282287</v>
+        <v>0.02306841662822869</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2872320843730786</v>
+        <v>0.2872320843730828</v>
       </c>
       <c r="S23" t="n">
-        <v>0.09780683649448121</v>
+        <v>0.09780683649447985</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4728133223009116</v>
+        <v>0.472813322300914</v>
       </c>
       <c r="U23" t="n">
         <v>1.013089289650647</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3924601451846285</v>
+        <v>0.3924601451846278</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.00208220000001802</v>
+        <v>0.001470799999999883</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2389,10 +2389,10 @@
         <v>10.36762248349623</v>
       </c>
       <c r="G24" t="n">
-        <v>38.78380844819844</v>
+        <v>38.78380844819843</v>
       </c>
       <c r="H24" t="n">
-        <v>8.684159342453365</v>
+        <v>8.68415934245337</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2416,25 +2416,25 @@
         <v>25.8878729245591</v>
       </c>
       <c r="P24" t="n">
-        <v>17.64527708214404</v>
+        <v>17.64527708214406</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02759717993161446</v>
+        <v>0.02759717993161425</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2299369165721261</v>
+        <v>0.2299369165721237</v>
       </c>
       <c r="S24" t="n">
-        <v>0.2246403129002635</v>
+        <v>0.2246403129002589</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2825874395111773</v>
+        <v>0.2825874395111721</v>
       </c>
       <c r="U24" t="n">
         <v>1.102593477099471</v>
       </c>
       <c r="V24" t="n">
-        <v>0.1128508674675411</v>
+        <v>0.1128508674675398</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.002329900000006546</v>
+        <v>0.001966299999999421</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2468,7 +2468,7 @@
         <v>359.9690769066261</v>
       </c>
       <c r="F25" t="n">
-        <v>9.822987232796464</v>
+        <v>9.822987232796468</v>
       </c>
       <c r="G25" t="n">
         <v>93.14655709696159</v>
@@ -2501,22 +2501,22 @@
         <v>19.08326624041301</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02920281625834485</v>
+        <v>0.02920281625834242</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4556738136729334</v>
+        <v>0.4556738136728186</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8485666615595234</v>
+        <v>0.8485666615593147</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1340146040718808</v>
+        <v>0.1340146040718519</v>
       </c>
       <c r="U25" t="n">
-        <v>0.9160722252634175</v>
+        <v>0.9160722252634178</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1151709507638041</v>
+        <v>0.1151709507638028</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.004789999999985639</v>
+        <v>0.003430800000000289</v>
       </c>
       <c r="Y25" t="n">
         <v>19</v>
@@ -2550,7 +2550,7 @@
         <v>359.9468866454908</v>
       </c>
       <c r="F26" t="n">
-        <v>9.970360878671894</v>
+        <v>9.970360878671892</v>
       </c>
       <c r="G26" t="n">
         <v>172.735268373941</v>
@@ -2583,16 +2583,16 @@
         <v>6.815939016239949</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01019740226119073</v>
+        <v>0.01019740226119069</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1089807748303154</v>
+        <v>0.1089807748303082</v>
       </c>
       <c r="S26" t="n">
-        <v>0.04074126287058386</v>
+        <v>0.04074126287058181</v>
       </c>
       <c r="T26" t="n">
-        <v>0.1503526589685736</v>
+        <v>0.1503526589685636</v>
       </c>
       <c r="U26" t="n">
         <v>0.9737592046485467</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.008339000000006536</v>
+        <v>0.004983900000000929</v>
       </c>
       <c r="Y26" t="n">
         <v>26</v>
@@ -2629,7 +2629,7 @@
         <v>9.987323144070718</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1134587567116564</v>
+        <v>0.1134587567116691</v>
       </c>
       <c r="F27" t="n">
         <v>9.884679314994685</v>
@@ -2665,16 +2665,16 @@
         <v>6.816370198458555</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01391014534879981</v>
+        <v>0.01391014534879937</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2695262971624231</v>
+        <v>0.269526297162383</v>
       </c>
       <c r="S27" t="n">
-        <v>0.178032515475954</v>
+        <v>0.1780325154759271</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3197137132527356</v>
+        <v>0.3197137132526879</v>
       </c>
       <c r="U27" t="n">
         <v>1.069020602510718</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.006011599999993678</v>
+        <v>0.005028199999999927</v>
       </c>
       <c r="Y27" t="n">
         <v>25</v>
@@ -2714,13 +2714,13 @@
         <v>0.06422091498413687</v>
       </c>
       <c r="F28" t="n">
-        <v>10.11256890521683</v>
+        <v>10.11256890521684</v>
       </c>
       <c r="G28" t="n">
         <v>56.02591375552863</v>
       </c>
       <c r="H28" t="n">
-        <v>9.192318695623902</v>
+        <v>9.192318695623907</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2741,28 +2741,28 @@
         <v>17.11232764246076</v>
       </c>
       <c r="O28" t="n">
-        <v>37.09528407742176</v>
+        <v>37.09528407742177</v>
       </c>
       <c r="P28" t="n">
-        <v>17.1261579921764</v>
+        <v>17.12615799217641</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02738055676903701</v>
+        <v>0.02738055676903642</v>
       </c>
       <c r="R28" t="n">
-        <v>0.2391130316690403</v>
+        <v>0.2391130316690382</v>
       </c>
       <c r="S28" t="n">
-        <v>0.3007873444283771</v>
+        <v>0.3007873444283675</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1978256816781621</v>
+        <v>0.1978256816781551</v>
       </c>
       <c r="U28" t="n">
-        <v>0.9600881233944307</v>
+        <v>0.9600881233944302</v>
       </c>
       <c r="V28" t="n">
-        <v>0.05646353422895414</v>
+        <v>0.05646353422895445</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002432499999997617</v>
+        <v>0.001693700000000575</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,13 +2796,13 @@
         <v>359.8031067745647</v>
       </c>
       <c r="F29" t="n">
-        <v>9.989265787808526</v>
+        <v>9.989265787808533</v>
       </c>
       <c r="G29" t="n">
-        <v>76.59056148606285</v>
+        <v>76.59056148606287</v>
       </c>
       <c r="H29" t="n">
-        <v>12.88566628455222</v>
+        <v>12.88566628455223</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2826,25 +2826,25 @@
         <v>55.88570464060308</v>
       </c>
       <c r="P29" t="n">
-        <v>19.5397698660329</v>
+        <v>19.53976986603292</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02930019515096877</v>
+        <v>0.02930019515096798</v>
       </c>
       <c r="R29" t="n">
-        <v>0.3474772181544892</v>
+        <v>0.3474772181544618</v>
       </c>
       <c r="S29" t="n">
-        <v>0.5973780925560238</v>
+        <v>0.5973780925559767</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1126185585689809</v>
+        <v>0.1126185585689776</v>
       </c>
       <c r="U29" t="n">
         <v>1.035250421370018</v>
       </c>
       <c r="V29" t="n">
-        <v>0.05038794097318148</v>
+        <v>0.05038794097318477</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003329999999976962</v>
+        <v>0.002516599999999869</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -2878,13 +2878,13 @@
         <v>359.9402547678341</v>
       </c>
       <c r="F30" t="n">
-        <v>10.17381627875337</v>
+        <v>10.17381627875334</v>
       </c>
       <c r="G30" t="n">
         <v>131.1140611714098</v>
       </c>
       <c r="H30" t="n">
-        <v>9.997393232984878</v>
+        <v>9.997393232984846</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2908,25 +2908,25 @@
         <v>91.86017553738056</v>
       </c>
       <c r="P30" t="n">
-        <v>10.20369030436483</v>
+        <v>10.2036903043648</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02804516009805925</v>
+        <v>0.0280451600980566</v>
       </c>
       <c r="R30" t="n">
-        <v>0.5156232231159883</v>
+        <v>0.5156232231159166</v>
       </c>
       <c r="S30" t="n">
-        <v>0.5678944318515726</v>
+        <v>0.5678944318514937</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4551050384553191</v>
+        <v>0.4551050384552559</v>
       </c>
       <c r="U30" t="n">
         <v>0.9581359667556641</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1232944356956755</v>
+        <v>0.1232944356956626</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.005859000000015158</v>
+        <v>0.004040399999999167</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -2966,7 +2966,7 @@
         <v>154.4131591725971</v>
       </c>
       <c r="H31" t="n">
-        <v>6.814192850198964</v>
+        <v>6.814192850198976</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2987,28 +2987,28 @@
         <v>4.383667298314077</v>
       </c>
       <c r="O31" t="n">
-        <v>85.0731243959907</v>
+        <v>85.07312439599072</v>
       </c>
       <c r="P31" t="n">
-        <v>4.696195050155331</v>
+        <v>4.69619505015534</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.02743995667356102</v>
+        <v>0.02743995667359364</v>
       </c>
       <c r="R31" t="n">
-        <v>0.3325504080518914</v>
+        <v>0.3325504080524798</v>
       </c>
       <c r="S31" t="n">
-        <v>0.237474796366919</v>
+        <v>0.2374747963673284</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2610512012240916</v>
+        <v>0.2610512012245532</v>
       </c>
       <c r="U31" t="n">
         <v>1.005782327269951</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3015659279311088</v>
+        <v>0.3015659279311106</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.007455200000009654</v>
+        <v>0.005657199999999918</v>
       </c>
       <c r="Y31" t="n">
         <v>23</v>
@@ -3042,13 +3042,13 @@
         <v>0.07194961460292376</v>
       </c>
       <c r="F32" t="n">
-        <v>9.798840608009307</v>
+        <v>9.798840608009304</v>
       </c>
       <c r="G32" t="n">
         <v>115.8911595852755</v>
       </c>
       <c r="H32" t="n">
-        <v>7.335361170306604</v>
+        <v>7.335361170306602</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3072,25 +3072,25 @@
         <v>69.85536243516106</v>
       </c>
       <c r="P32" t="n">
-        <v>9.694711778382837</v>
+        <v>9.694711778382832</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0247715110154282</v>
+        <v>0.02477151101542928</v>
       </c>
       <c r="R32" t="n">
-        <v>0.277653459425817</v>
+        <v>0.2776534594258452</v>
       </c>
       <c r="S32" t="n">
-        <v>0.321915690881561</v>
+        <v>0.3219156908815931</v>
       </c>
       <c r="T32" t="n">
-        <v>0.140115701896573</v>
+        <v>0.1401157018965862</v>
       </c>
       <c r="U32" t="n">
-        <v>0.9954434489512564</v>
+        <v>0.9954434489512568</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1409761141534545</v>
+        <v>0.1409761141534563</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.005045299999977715</v>
+        <v>0.003744100000000472</v>
       </c>
       <c r="Y32" t="n">
         <v>21</v>
@@ -3154,25 +3154,25 @@
         <v>38.88188406124038</v>
       </c>
       <c r="P33" t="n">
-        <v>23.06778240904923</v>
+        <v>23.06778240904924</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.0290002155812483</v>
+        <v>0.02900021558124756</v>
       </c>
       <c r="R33" t="n">
-        <v>0.301403535006771</v>
+        <v>0.3014035350067505</v>
       </c>
       <c r="S33" t="n">
-        <v>0.4775778191953227</v>
+        <v>0.4775778191952814</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3123564602357602</v>
+        <v>0.3123564602357352</v>
       </c>
       <c r="U33" t="n">
-        <v>1.026046412091717</v>
+        <v>1.026046412091716</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1282778384841282</v>
+        <v>0.1282778384841262</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002646599999991395</v>
+        <v>0.001744399999999757</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3206,13 +3206,13 @@
         <v>359.7646034277456</v>
       </c>
       <c r="F34" t="n">
-        <v>10.35374203492944</v>
+        <v>10.35374203492951</v>
       </c>
       <c r="G34" t="n">
-        <v>153.6803500408259</v>
+        <v>153.6803500408258</v>
       </c>
       <c r="H34" t="n">
-        <v>7.890356364328424</v>
+        <v>7.8903563643285</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3233,28 +3233,28 @@
         <v>5.067646835573846</v>
       </c>
       <c r="O34" t="n">
-        <v>98.01121233334626</v>
+        <v>98.01121233334622</v>
       </c>
       <c r="P34" t="n">
-        <v>5.378504705639176</v>
+        <v>5.37850470563923</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.02920123445510924</v>
+        <v>0.0292012344550317</v>
       </c>
       <c r="R34" t="n">
-        <v>0.474494447790914</v>
+        <v>0.474494447789199</v>
       </c>
       <c r="S34" t="n">
-        <v>0.330264416658561</v>
+        <v>0.3302644166573807</v>
       </c>
       <c r="T34" t="n">
-        <v>0.4366855407927778</v>
+        <v>0.4366855407911996</v>
       </c>
       <c r="U34" t="n">
         <v>1.008921293047723</v>
       </c>
       <c r="V34" t="n">
-        <v>0.2945601506498394</v>
+        <v>0.2945601506498988</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.006389399999989109</v>
+        <v>0.00497879999999995</v>
       </c>
       <c r="Y34" t="n">
         <v>27</v>
@@ -3291,10 +3291,10 @@
         <v>9.986048074395331</v>
       </c>
       <c r="G35" t="n">
-        <v>45.43287116676812</v>
+        <v>45.43287116676813</v>
       </c>
       <c r="H35" t="n">
-        <v>7.847271910499273</v>
+        <v>7.847271910499268</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3318,25 +3318,25 @@
         <v>29.57861772745745</v>
       </c>
       <c r="P35" t="n">
-        <v>16.07221732110007</v>
+        <v>16.07221732110006</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.02622963558763505</v>
+        <v>0.02622963558763513</v>
       </c>
       <c r="R35" t="n">
-        <v>0.2084379762769573</v>
+        <v>0.2084379762769622</v>
       </c>
       <c r="S35" t="n">
-        <v>0.2209106050962953</v>
+        <v>0.2209106050962988</v>
       </c>
       <c r="T35" t="n">
-        <v>0.227502209634476</v>
+        <v>0.227502209634477</v>
       </c>
       <c r="U35" t="n">
-        <v>0.9606152754704494</v>
+        <v>0.9606152754704499</v>
       </c>
       <c r="V35" t="n">
-        <v>0.2542154278136202</v>
+        <v>0.2542154278136226</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002438499999982469</v>
+        <v>0.001792000000000016</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
@@ -3400,25 +3400,25 @@
         <v>7.791716130939114</v>
       </c>
       <c r="P36" t="n">
-        <v>22.03915863133165</v>
+        <v>22.03915863133164</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.02574446678148988</v>
+        <v>0.02574446678148981</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3999143691557687</v>
+        <v>0.3999143691557665</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1245345144841659</v>
+        <v>0.1245345144841652</v>
       </c>
       <c r="T36" t="n">
-        <v>0.6912749270031837</v>
+        <v>0.6912749270031799</v>
       </c>
       <c r="U36" t="n">
-        <v>0.9552682735297684</v>
+        <v>0.9552682735297682</v>
       </c>
       <c r="V36" t="n">
-        <v>0.1643151768125553</v>
+        <v>0.1643151768125569</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001907600000009779</v>
+        <v>0.002142499999999714</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3452,13 +3452,13 @@
         <v>359.9228091541827</v>
       </c>
       <c r="F37" t="n">
-        <v>10.1154720053783</v>
+        <v>10.11547200537829</v>
       </c>
       <c r="G37" t="n">
         <v>83.14518636146371</v>
       </c>
       <c r="H37" t="n">
-        <v>6.810405946054919</v>
+        <v>6.810405946054916</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3479,28 +3479,28 @@
         <v>12.44155687331505</v>
       </c>
       <c r="O37" t="n">
-        <v>47.56958857682134</v>
+        <v>47.56958857682135</v>
       </c>
       <c r="P37" t="n">
         <v>12.56053132496753</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.02583842771299988</v>
+        <v>0.02583842771300073</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2185044779578812</v>
+        <v>0.2185044779578901</v>
       </c>
       <c r="S37" t="n">
-        <v>0.2650440100356599</v>
+        <v>0.2650440100356753</v>
       </c>
       <c r="T37" t="n">
-        <v>0.09035651207080717</v>
+        <v>0.09035651207080866</v>
       </c>
       <c r="U37" t="n">
         <v>1.043431304585038</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1460820502520574</v>
+        <v>0.146082050252056</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.003798599999981889</v>
+        <v>0.002359199999999007</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -3534,13 +3534,13 @@
         <v>0.2335040003026858</v>
       </c>
       <c r="F38" t="n">
-        <v>9.119397894405282</v>
+        <v>9.11939789440528</v>
       </c>
       <c r="G38" t="n">
         <v>131.4776984325905</v>
       </c>
       <c r="H38" t="n">
-        <v>8.944130337859654</v>
+        <v>8.944130337859651</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3564,25 +3564,25 @@
         <v>93.74739888780778</v>
       </c>
       <c r="P38" t="n">
-        <v>9.268713577845368</v>
+        <v>9.268713577845364</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.02303198425361284</v>
+        <v>0.02303198425360903</v>
       </c>
       <c r="R38" t="n">
-        <v>0.4240911483265693</v>
+        <v>0.4240911483264409</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4785806787567271</v>
+        <v>0.4785806787565836</v>
       </c>
       <c r="T38" t="n">
-        <v>0.3893512962569711</v>
+        <v>0.3893512962568532</v>
       </c>
       <c r="U38" t="n">
         <v>1.101044743078263</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5079340570233675</v>
+        <v>0.5079340570233689</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.00634560000000306</v>
+        <v>0.004508399999998858</v>
       </c>
       <c r="Y38" t="n">
         <v>26</v>
@@ -3616,7 +3616,7 @@
         <v>0.04425533380112517</v>
       </c>
       <c r="F39" t="n">
-        <v>9.814369490563481</v>
+        <v>9.814369490563479</v>
       </c>
       <c r="G39" t="n">
         <v>170.3107752896399</v>
@@ -3643,28 +3643,28 @@
         <v>4.031761962137695</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0870519718115</v>
+        <v>133.0870519718116</v>
       </c>
       <c r="P39" t="n">
-        <v>3.922251533713962</v>
+        <v>3.922251533713963</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01106614954099616</v>
+        <v>0.01106614954099608</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1724721678145826</v>
+        <v>0.1724721678145071</v>
       </c>
       <c r="S39" t="n">
-        <v>0.06821284940227919</v>
+        <v>0.06821284940225149</v>
       </c>
       <c r="T39" t="n">
-        <v>0.1936675787143584</v>
+        <v>0.1936675787142737</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9694525720700088</v>
+        <v>0.9694525720700086</v>
       </c>
       <c r="V39" t="n">
-        <v>0.1685766711060014</v>
+        <v>0.1685766711060152</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.006010300000014013</v>
+        <v>0.004552800000000801</v>
       </c>
       <c r="Y39" t="n">
         <v>25</v>
@@ -3704,7 +3704,7 @@
         <v>69.60040131220771</v>
       </c>
       <c r="H40" t="n">
-        <v>13.73753016904335</v>
+        <v>13.73753016904336</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3725,28 +3725,28 @@
         <v>20.73148308181667</v>
       </c>
       <c r="O40" t="n">
-        <v>51.11083240871672</v>
+        <v>51.11083240871673</v>
       </c>
       <c r="P40" t="n">
         <v>21.3031792471318</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.03041011724338557</v>
+        <v>0.03041011724338711</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3533161893290988</v>
+        <v>0.3533161893291673</v>
       </c>
       <c r="S40" t="n">
-        <v>0.6046367714679487</v>
+        <v>0.6046367714680645</v>
       </c>
       <c r="T40" t="n">
-        <v>0.1755731236901057</v>
+        <v>0.1755731236901251</v>
       </c>
       <c r="U40" t="n">
         <v>1.062387813477791</v>
       </c>
       <c r="V40" t="n">
-        <v>0.1576880898268502</v>
+        <v>0.1576880898268579</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.004174000000006117</v>
+        <v>0.00231530000000113</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
@@ -3780,13 +3780,13 @@
         <v>359.9593091093706</v>
       </c>
       <c r="F41" t="n">
-        <v>10.00166358184717</v>
+        <v>10.00166358184718</v>
       </c>
       <c r="G41" t="n">
         <v>98.39395665879589</v>
       </c>
       <c r="H41" t="n">
-        <v>12.61415329829017</v>
+        <v>12.61415329829019</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3807,28 +3807,28 @@
         <v>16.90630795593209</v>
       </c>
       <c r="O41" t="n">
-        <v>72.21861264539025</v>
+        <v>72.21861264539027</v>
       </c>
       <c r="P41" t="n">
-        <v>16.94780312896568</v>
+        <v>16.94780312896571</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.02894773905188834</v>
+        <v>0.02894773905188789</v>
       </c>
       <c r="R41" t="n">
-        <v>0.4416337594277258</v>
+        <v>0.4416337594277079</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7394018705009616</v>
+        <v>0.7394018705009331</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1711972070047668</v>
+        <v>0.1711972070047598</v>
       </c>
       <c r="U41" t="n">
-        <v>1.045882021366368</v>
+        <v>1.045882021366367</v>
       </c>
       <c r="V41" t="n">
-        <v>0.0183177901667257</v>
+        <v>0.01831779016673274</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.004645299999992858</v>
+        <v>0.004240199999999916</v>
       </c>
       <c r="Y41" t="n">
         <v>19</v>
@@ -3868,7 +3868,7 @@
         <v>71.75992441205121</v>
       </c>
       <c r="H42" t="n">
-        <v>3.845429757067657</v>
+        <v>3.845429757067658</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3889,28 +3889,28 @@
         <v>10.18120494273455</v>
       </c>
       <c r="O42" t="n">
-        <v>31.87392060063051</v>
+        <v>31.87392060063049</v>
       </c>
       <c r="P42" t="n">
-        <v>10.49974868950169</v>
+        <v>10.4997486895017</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.02369176201108318</v>
+        <v>0.02369176201108253</v>
       </c>
       <c r="R42" t="n">
-        <v>0.153233419562242</v>
+        <v>0.1532334195622431</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1456840792332078</v>
+        <v>0.145684079233204</v>
       </c>
       <c r="T42" t="n">
-        <v>0.1388340276981676</v>
+        <v>0.1388340276981632</v>
       </c>
       <c r="U42" t="n">
-        <v>0.9686923558920443</v>
+        <v>0.9686923558920442</v>
       </c>
       <c r="V42" t="n">
-        <v>0.2293350511863979</v>
+        <v>0.2293350511863994</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.00293970000001309</v>
+        <v>0.001646299999999101</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3944,13 +3944,13 @@
         <v>0.2559025841278118</v>
       </c>
       <c r="F43" t="n">
-        <v>9.957805716180754</v>
+        <v>9.957805716180752</v>
       </c>
       <c r="G43" t="n">
-        <v>47.16669837950107</v>
+        <v>47.16669837950106</v>
       </c>
       <c r="H43" t="n">
-        <v>3.130655400345158</v>
+        <v>3.130655400345159</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>10.66209899167555</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.02257124033984569</v>
+        <v>0.02257124033984521</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1497283425682582</v>
+        <v>0.1497283425682572</v>
       </c>
       <c r="S43" t="n">
-        <v>0.1092756069483977</v>
+        <v>0.1092756069483975</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1996484631093516</v>
+        <v>0.1996484631093458</v>
       </c>
       <c r="U43" t="n">
         <v>1.001330773575301</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4586751753837822</v>
+        <v>0.4586751753837824</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.00219440000000759</v>
+        <v>0.001599900000000432</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4026,7 +4026,7 @@
         <v>0.2257882273220521</v>
       </c>
       <c r="F44" t="n">
-        <v>10.1074589565517</v>
+        <v>10.10745895655169</v>
       </c>
       <c r="G44" t="n">
         <v>67.96168179777001</v>
@@ -4053,28 +4053,28 @@
         <v>22.14193003827787</v>
       </c>
       <c r="O44" t="n">
-        <v>50.80399756259799</v>
+        <v>50.803997562598</v>
       </c>
       <c r="P44" t="n">
-        <v>21.99826331664173</v>
+        <v>21.99826331664172</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.02927140228239211</v>
+        <v>0.0292714022823916</v>
       </c>
       <c r="R44" t="n">
-        <v>0.3561246434811213</v>
+        <v>0.3561246434811357</v>
       </c>
       <c r="S44" t="n">
-        <v>0.6276279664248982</v>
+        <v>0.6276279664249149</v>
       </c>
       <c r="T44" t="n">
-        <v>0.195055786856549</v>
+        <v>0.1950557868565473</v>
       </c>
       <c r="U44" t="n">
-        <v>0.9376851696032255</v>
+        <v>0.9376851696032253</v>
       </c>
       <c r="V44" t="n">
-        <v>0.07916006547825265</v>
+        <v>0.07916006547826063</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.00394099999999753</v>
+        <v>0.003727800000000059</v>
       </c>
       <c r="Y44" t="n">
         <v>12</v>
@@ -4114,7 +4114,7 @@
         <v>20.19493134247823</v>
       </c>
       <c r="H45" t="n">
-        <v>10.50799881049255</v>
+        <v>10.50799881049254</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,22 +4141,22 @@
         <v>19.77794941959817</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.02617046206431704</v>
+        <v>0.02617046206431669</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2526525728822088</v>
+        <v>0.2526525728822094</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1724648928572999</v>
+        <v>0.172464892857297</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4154458361360017</v>
+        <v>0.415445836135992</v>
       </c>
       <c r="U45" t="n">
-        <v>0.978105544781276</v>
+        <v>0.9781055447812758</v>
       </c>
       <c r="V45" t="n">
-        <v>0.09588290003728343</v>
+        <v>0.0958829000372827</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002183899999977257</v>
+        <v>0.001604999999999634</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4220,25 +4220,25 @@
         <v>51.67581572838445</v>
       </c>
       <c r="P46" t="n">
-        <v>4.85874310070673</v>
+        <v>4.858743100706731</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.02168435656629321</v>
+        <v>0.02168435656629281</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1317277405501546</v>
+        <v>0.1317277405501439</v>
       </c>
       <c r="S46" t="n">
-        <v>0.1152623831613563</v>
+        <v>0.1152623831613484</v>
       </c>
       <c r="T46" t="n">
-        <v>0.06310471466863751</v>
+        <v>0.06310471466863546</v>
       </c>
       <c r="U46" t="n">
-        <v>0.9980567289640074</v>
+        <v>0.9980567289640075</v>
       </c>
       <c r="V46" t="n">
-        <v>0.1856111868031561</v>
+        <v>0.1856111868031564</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.004893799999990733</v>
+        <v>0.002998800000000301</v>
       </c>
       <c r="Y46" t="n">
         <v>17</v>
@@ -4305,13 +4305,13 @@
         <v>4.408768210819777</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.009763214149757816</v>
+        <v>0.009763214149757844</v>
       </c>
       <c r="R47" t="n">
-        <v>0.09696672422961963</v>
+        <v>0.09696672422961962</v>
       </c>
       <c r="S47" t="n">
-        <v>0.02422041792498897</v>
+        <v>0.02422041792498884</v>
       </c>
       <c r="T47" t="n">
         <v>0.1186636362554909</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.006538599999998951</v>
+        <v>0.005489100000000136</v>
       </c>
       <c r="Y47" t="n">
         <v>27</v>
@@ -4351,16 +4351,16 @@
         <v>10.61800447263276</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1056212863439702</v>
+        <v>0.1056212863439829</v>
       </c>
       <c r="F48" t="n">
-        <v>9.636905890843805</v>
+        <v>9.636905890843774</v>
       </c>
       <c r="G48" t="n">
         <v>141.3819465171159</v>
       </c>
       <c r="H48" t="n">
-        <v>10.07126253648403</v>
+        <v>10.07126253648399</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4384,25 +4384,25 @@
         <v>105.5050301689996</v>
       </c>
       <c r="P48" t="n">
-        <v>9.060852880548524</v>
+        <v>9.06085288054849</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.01994584964008773</v>
+        <v>0.01994584964007608</v>
       </c>
       <c r="R48" t="n">
-        <v>0.4185251784558249</v>
+        <v>0.4185251784553193</v>
       </c>
       <c r="S48" t="n">
-        <v>0.409730522134764</v>
+        <v>0.4097305221342686</v>
       </c>
       <c r="T48" t="n">
-        <v>0.4550702983909371</v>
+        <v>0.4550702983903876</v>
       </c>
       <c r="U48" t="n">
-        <v>1.029446218960775</v>
+        <v>1.029446218960776</v>
       </c>
       <c r="V48" t="n">
-        <v>0.2359312363750265</v>
+        <v>0.2359312363750425</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.006457699999998567</v>
+        <v>0.004562200000000516</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
@@ -4436,7 +4436,7 @@
         <v>0.06276390103724139</v>
       </c>
       <c r="F49" t="n">
-        <v>10.12816203903962</v>
+        <v>10.12816203903963</v>
       </c>
       <c r="G49" t="n">
         <v>20.5149100535539</v>
@@ -4469,19 +4469,19 @@
         <v>24.90058775467303</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.02941624065574009</v>
+        <v>0.02941624065573953</v>
       </c>
       <c r="R49" t="n">
-        <v>0.3123523882935985</v>
+        <v>0.3123523882936015</v>
       </c>
       <c r="S49" t="n">
-        <v>0.2440562462875698</v>
+        <v>0.2440562462875664</v>
       </c>
       <c r="T49" t="n">
-        <v>0.5396105275991158</v>
+        <v>0.5396105275991014</v>
       </c>
       <c r="U49" t="n">
-        <v>0.9957440349237557</v>
+        <v>0.9957440349237555</v>
       </c>
       <c r="V49" t="n">
         <v>0.04953817918201329</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002170400000011341</v>
+        <v>0.002954700000000088</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4518,7 +4518,7 @@
         <v>359.9889026909563</v>
       </c>
       <c r="F50" t="n">
-        <v>9.552300731575331</v>
+        <v>9.552300731575327</v>
       </c>
       <c r="G50" t="n">
         <v>2.863908675073846</v>
@@ -4554,13 +4554,13 @@
         <v>0.02312311033974841</v>
       </c>
       <c r="R50" t="n">
-        <v>0.51693286594748</v>
+        <v>0.5169328659474778</v>
       </c>
       <c r="S50" t="n">
-        <v>0.1023486955379437</v>
+        <v>0.1023486955379439</v>
       </c>
       <c r="T50" t="n">
-        <v>0.8801729868313691</v>
+        <v>0.8801729868313672</v>
       </c>
       <c r="U50" t="n">
         <v>1.018632100385765</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001973399999997127</v>
+        <v>0.001407600000000286</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4600,13 +4600,13 @@
         <v>359.9537666517933</v>
       </c>
       <c r="F51" t="n">
-        <v>9.833676067354141</v>
+        <v>9.833676067354142</v>
       </c>
       <c r="G51" t="n">
         <v>53.27727290398624</v>
       </c>
       <c r="H51" t="n">
-        <v>5.951127017417059</v>
+        <v>5.951127017417065</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4630,25 +4630,25 @@
         <v>30.94221803354398</v>
       </c>
       <c r="P51" t="n">
-        <v>13.39351392036212</v>
+        <v>13.39351392036213</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.02475208896601546</v>
+        <v>0.02475208896601525</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1781289892755914</v>
+        <v>0.1781289892755937</v>
       </c>
       <c r="S51" t="n">
-        <v>0.1832602293745093</v>
+        <v>0.1832602293745087</v>
       </c>
       <c r="T51" t="n">
-        <v>0.1764976844106904</v>
+        <v>0.1764976844106889</v>
       </c>
       <c r="U51" t="n">
         <v>0.910711071032241</v>
       </c>
       <c r="V51" t="n">
-        <v>0.07531064941843049</v>
+        <v>0.07531064941842656</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002299700000008897</v>
+        <v>0.001586599999999549</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4679,16 +4679,16 @@
         <v>5.736997253392035</v>
       </c>
       <c r="E52" t="n">
-        <v>359.9596400806246</v>
+        <v>359.9596400806245</v>
       </c>
       <c r="F52" t="n">
         <v>10.03156073186206</v>
       </c>
       <c r="G52" t="n">
-        <v>88.67056662279815</v>
+        <v>88.67056662279813</v>
       </c>
       <c r="H52" t="n">
-        <v>5.836235134272709</v>
+        <v>5.836235134272712</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4712,25 +4712,25 @@
         <v>47.13650704140256</v>
       </c>
       <c r="P52" t="n">
-        <v>11.13949077195743</v>
+        <v>11.13949077195744</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.02486169678737362</v>
+        <v>0.02486169678737335</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1966682676203493</v>
+        <v>0.1966682676203622</v>
       </c>
       <c r="S52" t="n">
-        <v>0.2260768394508597</v>
+        <v>0.226076839450868</v>
       </c>
       <c r="T52" t="n">
-        <v>0.08358953738636234</v>
+        <v>0.08358953738636088</v>
       </c>
       <c r="U52" t="n">
         <v>0.9802303731554249</v>
       </c>
       <c r="V52" t="n">
-        <v>0.09712988728786451</v>
+        <v>0.09712988728786687</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.003565099999974564</v>
+        <v>0.002484800000001286</v>
       </c>
       <c r="Y52" t="n">
         <v>12</v>
@@ -4764,13 +4764,13 @@
         <v>0.0002529885639165616</v>
       </c>
       <c r="F53" t="n">
-        <v>9.916339081284072</v>
+        <v>9.916339081284075</v>
       </c>
       <c r="G53" t="n">
         <v>119.6803659593466</v>
       </c>
       <c r="H53" t="n">
-        <v>3.491919275356204</v>
+        <v>3.491919275356206</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4794,25 +4794,25 @@
         <v>42.63747400504612</v>
       </c>
       <c r="P53" t="n">
-        <v>7.102660256046746</v>
+        <v>7.102660256046748</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02191655331321401</v>
+        <v>0.02191655331321377</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1309649794049136</v>
+        <v>0.1309649794049175</v>
       </c>
       <c r="S53" t="n">
-        <v>0.1268824231182328</v>
+        <v>0.1268824231182342</v>
       </c>
       <c r="T53" t="n">
-        <v>0.07465273925230505</v>
+        <v>0.07465273925230397</v>
       </c>
       <c r="U53" t="n">
-        <v>0.973164849002681</v>
+        <v>0.9731648490026812</v>
       </c>
       <c r="V53" t="n">
-        <v>0.148295881438616</v>
+        <v>0.1482958814386153</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003507200000001376</v>
+        <v>0.002620399999999634</v>
       </c>
       <c r="Y53" t="n">
         <v>14</v>
@@ -4873,28 +4873,28 @@
         <v>5.169813417634993</v>
       </c>
       <c r="O54" t="n">
-        <v>39.43296347215882</v>
+        <v>39.43296347215883</v>
       </c>
       <c r="P54" t="n">
-        <v>5.463800404655307</v>
+        <v>5.463800404655305</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.02114482085800543</v>
+        <v>0.02114482085800529</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1090421840830825</v>
+        <v>0.1090421840830865</v>
       </c>
       <c r="S54" t="n">
-        <v>0.09731783990078079</v>
+        <v>0.09731783990078323</v>
       </c>
       <c r="T54" t="n">
-        <v>0.0740119276094839</v>
+        <v>0.07401192760948244</v>
       </c>
       <c r="U54" t="n">
-        <v>0.9238266626767411</v>
+        <v>0.9238266626767414</v>
       </c>
       <c r="V54" t="n">
-        <v>0.3070295833532977</v>
+        <v>0.3070295833532968</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.003898300000003019</v>
+        <v>0.002612100000000339</v>
       </c>
       <c r="Y54" t="n">
         <v>14</v>
@@ -4928,13 +4928,13 @@
         <v>0.001971498846943748</v>
       </c>
       <c r="F55" t="n">
-        <v>9.689595652077902</v>
+        <v>9.689595652077919</v>
       </c>
       <c r="G55" t="n">
         <v>152.5641978111716</v>
       </c>
       <c r="H55" t="n">
-        <v>9.33250198528552</v>
+        <v>9.332501985285541</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4955,28 +4955,28 @@
         <v>7.220398177179498</v>
       </c>
       <c r="O55" t="n">
-        <v>114.3581249950071</v>
+        <v>114.358124995007</v>
       </c>
       <c r="P55" t="n">
-        <v>6.949374056707028</v>
+        <v>6.949374056707041</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.01630690200946995</v>
+        <v>0.01630690200947939</v>
       </c>
       <c r="R55" t="n">
-        <v>0.3283058412668969</v>
+        <v>0.3283058412674913</v>
       </c>
       <c r="S55" t="n">
-        <v>0.243733062404026</v>
+        <v>0.2437330624044606</v>
       </c>
       <c r="T55" t="n">
-        <v>0.3714965001169561</v>
+        <v>0.3714965001176287</v>
       </c>
       <c r="U55" t="n">
         <v>1.120860462098682</v>
       </c>
       <c r="V55" t="n">
-        <v>0.1918489171713532</v>
+        <v>0.1918489171713304</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.006337700000017321</v>
+        <v>0.005412500000000264</v>
       </c>
       <c r="Y55" t="n">
         <v>26</v>
@@ -5010,13 +5010,13 @@
         <v>0.22720184807843</v>
       </c>
       <c r="F56" t="n">
-        <v>9.712439887412803</v>
+        <v>9.712439887412804</v>
       </c>
       <c r="G56" t="n">
         <v>75.90075599085675</v>
       </c>
       <c r="H56" t="n">
-        <v>6.890648666986086</v>
+        <v>6.890648666986089</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5043,22 +5043,22 @@
         <v>12.96786250070776</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.02470887289107289</v>
+        <v>0.02470887289107279</v>
       </c>
       <c r="R56" t="n">
-        <v>0.204936945933049</v>
+        <v>0.2049369459330508</v>
       </c>
       <c r="S56" t="n">
-        <v>0.255954978807712</v>
+        <v>0.2559549788077136</v>
       </c>
       <c r="T56" t="n">
-        <v>0.1022673550695797</v>
+        <v>0.1022673550695789</v>
       </c>
       <c r="U56" t="n">
         <v>0.9830844475516061</v>
       </c>
       <c r="V56" t="n">
-        <v>0.2677202459260584</v>
+        <v>0.2677202459260564</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002633699999989858</v>
+        <v>0.001829700000000045</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5092,10 +5092,10 @@
         <v>359.9128977654705</v>
       </c>
       <c r="F57" t="n">
-        <v>10.078103631054</v>
+        <v>10.07810363105399</v>
       </c>
       <c r="G57" t="n">
-        <v>17.0065058678398</v>
+        <v>17.00650586783978</v>
       </c>
       <c r="H57" t="n">
         <v>14.92320221350842</v>
@@ -5125,22 +5125,22 @@
         <v>25.40400936038575</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.02895854503205664</v>
+        <v>0.02895854503205702</v>
       </c>
       <c r="R57" t="n">
-        <v>0.3295237691449913</v>
+        <v>0.3295237691449924</v>
       </c>
       <c r="S57" t="n">
-        <v>0.2215813549950474</v>
+        <v>0.221581354995056</v>
       </c>
       <c r="T57" t="n">
-        <v>0.5876956283494897</v>
+        <v>0.5876956283495082</v>
       </c>
       <c r="U57" t="n">
-        <v>0.9774168899520834</v>
+        <v>0.9774168899520832</v>
       </c>
       <c r="V57" t="n">
-        <v>0.1080039926910716</v>
+        <v>0.1080039926910699</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002208200000012539</v>
+        <v>0.001700299999999544</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5204,16 +5204,16 @@
         <v>122.8437506992805</v>
       </c>
       <c r="P58" t="n">
-        <v>1.821827819474181</v>
+        <v>1.821827819474182</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.01058023553623713</v>
+        <v>0.01058023553623714</v>
       </c>
       <c r="R58" t="n">
         <v>0.1245513585661092</v>
       </c>
       <c r="S58" t="n">
-        <v>0.03955551041220704</v>
+        <v>0.03955551041220712</v>
       </c>
       <c r="T58" t="n">
         <v>0.1206988263470141</v>
@@ -5222,7 +5222,7 @@
         <v>0.9571206742630465</v>
       </c>
       <c r="V58" t="n">
-        <v>0.2201956254621567</v>
+        <v>0.2201956254621565</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.006610299999977087</v>
+        <v>0.005009300000001105</v>
       </c>
       <c r="Y58" t="n">
         <v>25</v>
@@ -5256,13 +5256,13 @@
         <v>359.9093345778684</v>
       </c>
       <c r="F59" t="n">
-        <v>9.648004409739364</v>
+        <v>9.648004409739363</v>
       </c>
       <c r="G59" t="n">
-        <v>14.88521684940998</v>
+        <v>14.88521684940997</v>
       </c>
       <c r="H59" t="n">
-        <v>6.352321016971269</v>
+        <v>6.352321016971268</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5283,19 +5283,19 @@
         <v>14.37002887945796</v>
       </c>
       <c r="O59" t="n">
-        <v>12.20100419202569</v>
+        <v>12.20100419202568</v>
       </c>
       <c r="P59" t="n">
         <v>14.73136182574495</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.02233264576791532</v>
+        <v>0.02233264576791531</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2237575256191184</v>
+        <v>0.2237575256191191</v>
       </c>
       <c r="S59" t="n">
-        <v>0.1016662935346161</v>
+        <v>0.1016662935346164</v>
       </c>
       <c r="T59" t="n">
         <v>0.3644084139466952</v>
@@ -5304,7 +5304,7 @@
         <v>1.090899475066526</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3257440343955503</v>
+        <v>0.3257440343955576</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.002209999999990941</v>
+        <v>0.001597399999999638</v>
       </c>
       <c r="Y59" t="n">
         <v>8</v>
@@ -5344,7 +5344,7 @@
         <v>64.21070361038707</v>
       </c>
       <c r="H60" t="n">
-        <v>7.986063793396366</v>
+        <v>7.986063793396365</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5368,25 +5368,25 @@
         <v>41.67195747800169</v>
       </c>
       <c r="P60" t="n">
-        <v>14.73897050264204</v>
+        <v>14.73897050264203</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.02513069705262929</v>
+        <v>0.02513069705263006</v>
       </c>
       <c r="R60" t="n">
-        <v>0.20690158208202</v>
+        <v>0.2069015820820365</v>
       </c>
       <c r="S60" t="n">
-        <v>0.2711523332287034</v>
+        <v>0.2711523332287292</v>
       </c>
       <c r="T60" t="n">
-        <v>0.1379512896609774</v>
+        <v>0.1379512896609831</v>
       </c>
       <c r="U60" t="n">
-        <v>0.9402471143053245</v>
+        <v>0.9402471143053249</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3219164885387085</v>
+        <v>0.3219164885387089</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002495499999980666</v>
+        <v>0.001874199999999604</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5453,22 +5453,22 @@
         <v>2.933846232332346</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.01996988662078959</v>
+        <v>0.01996988662079011</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1099902206008212</v>
+        <v>0.1099902206008275</v>
       </c>
       <c r="S61" t="n">
-        <v>0.08981798202648872</v>
+        <v>0.08981798202649387</v>
       </c>
       <c r="T61" t="n">
-        <v>0.0574344489247789</v>
+        <v>0.05743444892478063</v>
       </c>
       <c r="U61" t="n">
-        <v>1.003988050894998</v>
+        <v>1.003988050894997</v>
       </c>
       <c r="V61" t="n">
-        <v>0.208960196960388</v>
+        <v>0.2089601969603954</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.004921700000011242</v>
+        <v>0.003697299999998904</v>
       </c>
       <c r="Y61" t="n">
         <v>20</v>
@@ -5502,13 +5502,13 @@
         <v>359.874119261655</v>
       </c>
       <c r="F62" t="n">
-        <v>10.26096324296389</v>
+        <v>10.26096324296388</v>
       </c>
       <c r="G62" t="n">
         <v>54.79641752189318</v>
       </c>
       <c r="H62" t="n">
-        <v>5.523374887835158</v>
+        <v>5.523374887835156</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5535,22 +5535,22 @@
         <v>13.21140912157862</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.0254743967027686</v>
+        <v>0.02547439670276894</v>
       </c>
       <c r="R62" t="n">
         <v>0.1835331180451037</v>
       </c>
       <c r="S62" t="n">
-        <v>0.178646706434908</v>
+        <v>0.1786467064349096</v>
       </c>
       <c r="T62" t="n">
-        <v>0.1828488503210136</v>
+        <v>0.1828488503210169</v>
       </c>
       <c r="U62" t="n">
         <v>1.071383963094739</v>
       </c>
       <c r="V62" t="n">
-        <v>0.2774939314009229</v>
+        <v>0.277493931400921</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002284500000001799</v>
+        <v>0.001648100000000596</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5617,16 +5617,16 @@
         <v>4.988188347418924</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.02283258754913163</v>
+        <v>0.02283258754913259</v>
       </c>
       <c r="R63" t="n">
-        <v>0.1818659349829696</v>
+        <v>0.1818659349829882</v>
       </c>
       <c r="S63" t="n">
-        <v>0.1529920967593572</v>
+        <v>0.152992096759371</v>
       </c>
       <c r="T63" t="n">
-        <v>0.1003283447592609</v>
+        <v>0.1003283447592708</v>
       </c>
       <c r="U63" t="n">
         <v>1.031221966971242</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.005076099999996586</v>
+        <v>0.004991200000000973</v>
       </c>
       <c r="Y63" t="n">
         <v>21</v>
@@ -5672,7 +5672,7 @@
         <v>6.342703855853018</v>
       </c>
       <c r="H64" t="n">
-        <v>8.449185509926064</v>
+        <v>8.449185509926066</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5699,22 +5699,22 @@
         <v>18.06851586034805</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.02404436686739048</v>
+        <v>0.02404436686739049</v>
       </c>
       <c r="R64" t="n">
-        <v>0.3614596635778</v>
+        <v>0.3614596635777976</v>
       </c>
       <c r="S64" t="n">
-        <v>0.09846000893845053</v>
+        <v>0.09846000893845068</v>
       </c>
       <c r="T64" t="n">
-        <v>0.5996672804321078</v>
+        <v>0.5996672804321055</v>
       </c>
       <c r="U64" t="n">
-        <v>0.893787781787989</v>
+        <v>0.8937877817879886</v>
       </c>
       <c r="V64" t="n">
-        <v>0.1416546964952033</v>
+        <v>0.1416546964952025</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.002186300000005303</v>
+        <v>0.001411000000000939</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5748,13 +5748,13 @@
         <v>359.9381776187826</v>
       </c>
       <c r="F65" t="n">
-        <v>10.18662948522059</v>
+        <v>10.1866294852206</v>
       </c>
       <c r="G65" t="n">
         <v>99.94441675607479</v>
       </c>
       <c r="H65" t="n">
-        <v>7.939974961783219</v>
+        <v>7.939974961783223</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5778,25 +5778,25 @@
         <v>60.66829386736778</v>
       </c>
       <c r="P65" t="n">
-        <v>12.0948638658078</v>
+        <v>12.09486386580781</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.02643224302988537</v>
+        <v>0.02643224302988711</v>
       </c>
       <c r="R65" t="n">
-        <v>0.2746018747572607</v>
+        <v>0.2746018747572901</v>
       </c>
       <c r="S65" t="n">
-        <v>0.3467487257864666</v>
+        <v>0.3467487257865071</v>
       </c>
       <c r="T65" t="n">
-        <v>0.08821028235827459</v>
+        <v>0.08821028235827826</v>
       </c>
       <c r="U65" t="n">
-        <v>0.9593140232607005</v>
+        <v>0.9593140232607007</v>
       </c>
       <c r="V65" t="n">
-        <v>0.100246707990891</v>
+        <v>0.1002467079908932</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.004495499999990216</v>
+        <v>0.003210700000000344</v>
       </c>
       <c r="Y65" t="n">
         <v>18</v>
@@ -5833,10 +5833,10 @@
         <v>10.03109150351018</v>
       </c>
       <c r="G66" t="n">
-        <v>68.49952612729109</v>
+        <v>68.49952612729111</v>
       </c>
       <c r="H66" t="n">
-        <v>9.685152917275833</v>
+        <v>9.685152917275829</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5857,28 +5857,28 @@
         <v>16.86218162216168</v>
       </c>
       <c r="O66" t="n">
-        <v>45.86009352923671</v>
+        <v>45.8600935292367</v>
       </c>
       <c r="P66" t="n">
         <v>16.76341454236098</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.02700401575535143</v>
+        <v>0.02700401575535192</v>
       </c>
       <c r="R66" t="n">
-        <v>0.2623907320423686</v>
+        <v>0.2623907320423907</v>
       </c>
       <c r="S66" t="n">
-        <v>0.3687838145073141</v>
+        <v>0.3687838145073452</v>
       </c>
       <c r="T66" t="n">
-        <v>0.1414551466990357</v>
+        <v>0.141455146699041</v>
       </c>
       <c r="U66" t="n">
         <v>1.079827371007452</v>
       </c>
       <c r="V66" t="n">
-        <v>0.05045592582347483</v>
+        <v>0.05045592582347644</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.005368600000025481</v>
+        <v>0.002156199999999941</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5912,13 +5912,13 @@
         <v>0.1354374492836424</v>
       </c>
       <c r="F67" t="n">
-        <v>9.961625739928508</v>
+        <v>9.961625739928511</v>
       </c>
       <c r="G67" t="n">
-        <v>38.63449963891128</v>
+        <v>38.63449963891129</v>
       </c>
       <c r="H67" t="n">
-        <v>3.369183000469293</v>
+        <v>3.369183000469292</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5945,22 +5945,22 @@
         <v>11.14213939193633</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.02250066196589125</v>
+        <v>0.02250066196589135</v>
       </c>
       <c r="R67" t="n">
-        <v>0.1582428255481388</v>
+        <v>0.1582428255481378</v>
       </c>
       <c r="S67" t="n">
-        <v>0.1053779888564198</v>
+        <v>0.1053779888564221</v>
       </c>
       <c r="T67" t="n">
-        <v>0.2239355189600976</v>
+        <v>0.2239355189600986</v>
       </c>
       <c r="U67" t="n">
-        <v>0.9922290320423972</v>
+        <v>0.9922290320423973</v>
       </c>
       <c r="V67" t="n">
-        <v>0.04735421499784699</v>
+        <v>0.04735421499784705</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002365099999991571</v>
+        <v>0.001622600000001029</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6000,7 +6000,7 @@
         <v>27.71009318580181</v>
       </c>
       <c r="H68" t="n">
-        <v>4.433805131726531</v>
+        <v>4.433805131726529</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6027,22 +6027,22 @@
         <v>12.50824764055539</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.02259213865305795</v>
+        <v>0.02259213865305865</v>
       </c>
       <c r="R68" t="n">
         <v>0.1773451502683299</v>
       </c>
       <c r="S68" t="n">
-        <v>0.1068466306206973</v>
+        <v>0.1068466306207015</v>
       </c>
       <c r="T68" t="n">
-        <v>0.2668227127409715</v>
+        <v>0.2668227127409836</v>
       </c>
       <c r="U68" t="n">
-        <v>0.9813216506294643</v>
+        <v>0.9813216506294646</v>
       </c>
       <c r="V68" t="n">
-        <v>0.1609978449162501</v>
+        <v>0.1609978449162515</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002329000000003134</v>
+        <v>0.001575600000000676</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,13 +6076,13 @@
         <v>0.2733281015535335</v>
       </c>
       <c r="F69" t="n">
-        <v>9.530816074288239</v>
+        <v>9.530816074288211</v>
       </c>
       <c r="G69" t="n">
         <v>97.95020146033431</v>
       </c>
       <c r="H69" t="n">
-        <v>12.43040787474628</v>
+        <v>12.43040787474623</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6103,28 +6103,28 @@
         <v>17.71985515776622</v>
       </c>
       <c r="O69" t="n">
-        <v>73.12176022205712</v>
+        <v>73.12176022205711</v>
       </c>
       <c r="P69" t="n">
-        <v>16.70879170560874</v>
+        <v>16.70879170560868</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.0264875841734356</v>
+        <v>0.02648758417343571</v>
       </c>
       <c r="R69" t="n">
-        <v>0.4208964896328504</v>
+        <v>0.4208964896328666</v>
       </c>
       <c r="S69" t="n">
-        <v>0.7302822385788759</v>
+        <v>0.7302822385789003</v>
       </c>
       <c r="T69" t="n">
-        <v>0.1671417944436158</v>
+        <v>0.1671417944436233</v>
       </c>
       <c r="U69" t="n">
         <v>0.9761048375408307</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3121908041801436</v>
+        <v>0.312190804180166</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.006396800000004532</v>
+        <v>0.004266700000000512</v>
       </c>
       <c r="Y69" t="n">
         <v>19</v>
@@ -6158,10 +6158,10 @@
         <v>359.9142919236386</v>
       </c>
       <c r="F70" t="n">
-        <v>9.940236759663602</v>
+        <v>9.940236759663605</v>
       </c>
       <c r="G70" t="n">
-        <v>46.8507594215632</v>
+        <v>46.85075942156323</v>
       </c>
       <c r="H70" t="n">
         <v>3.462734310319086</v>
@@ -6188,25 +6188,25 @@
         <v>22.38645430323822</v>
       </c>
       <c r="P70" t="n">
-        <v>10.99423248064088</v>
+        <v>10.99423248064089</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.02268758569261531</v>
+        <v>0.02268758569261536</v>
       </c>
       <c r="R70" t="n">
-        <v>0.1515671068628126</v>
+        <v>0.1515671068628115</v>
       </c>
       <c r="S70" t="n">
-        <v>0.1145669619591323</v>
+        <v>0.1145669619591307</v>
       </c>
       <c r="T70" t="n">
-        <v>0.1981988713730553</v>
+        <v>0.198198871373056</v>
       </c>
       <c r="U70" t="n">
         <v>1.00636080059824</v>
       </c>
       <c r="V70" t="n">
-        <v>0.07538238167625831</v>
+        <v>0.0753823816762588</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002354200000013407</v>
+        <v>0.001775000000000304</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,13 +6240,13 @@
         <v>0.218745893850771</v>
       </c>
       <c r="F71" t="n">
-        <v>9.414143577739253</v>
+        <v>9.414143577739257</v>
       </c>
       <c r="G71" t="n">
         <v>52.56857580612285</v>
       </c>
       <c r="H71" t="n">
-        <v>11.73904779237929</v>
+        <v>11.7390477923793</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>7</v>
       </c>
       <c r="M71" t="n">
-        <v>39.09766949772916</v>
+        <v>39.09766949772915</v>
       </c>
       <c r="N71" t="n">
         <v>21.2511977384674</v>
@@ -6273,22 +6273,22 @@
         <v>19.73574676965048</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.0268687445849951</v>
+        <v>0.02686874458499615</v>
       </c>
       <c r="R71" t="n">
-        <v>0.2525110680985122</v>
+        <v>0.2525110680985527</v>
       </c>
       <c r="S71" t="n">
-        <v>0.3746240057884333</v>
+        <v>0.3746240057884995</v>
       </c>
       <c r="T71" t="n">
-        <v>0.2376646509234596</v>
+        <v>0.2376646509234902</v>
       </c>
       <c r="U71" t="n">
-        <v>1.045565302537823</v>
+        <v>1.045565302537824</v>
       </c>
       <c r="V71" t="n">
-        <v>0.3787007998969631</v>
+        <v>0.3787007998969554</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.003389299999980722</v>
+        <v>0.001885700000000767</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6328,7 +6328,7 @@
         <v>166.8283970623088</v>
       </c>
       <c r="H72" t="n">
-        <v>13.59356721065267</v>
+        <v>13.59356721065265</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -6352,25 +6352,25 @@
         <v>149.9139777489724</v>
       </c>
       <c r="P72" t="n">
-        <v>9.740677800989623</v>
+        <v>9.740677800989612</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.01113597800404277</v>
+        <v>0.01113597800404276</v>
       </c>
       <c r="R72" t="n">
-        <v>0.126212023243341</v>
+        <v>0.1262120232433624</v>
       </c>
       <c r="S72" t="n">
-        <v>0.07067344474206082</v>
+        <v>0.07067344474207138</v>
       </c>
       <c r="T72" t="n">
-        <v>0.1968492417809697</v>
+        <v>0.1968492417810031</v>
       </c>
       <c r="U72" t="n">
         <v>1.012469023350545</v>
       </c>
       <c r="V72" t="n">
-        <v>0.07132741027331477</v>
+        <v>0.07132741027331063</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.006284700000009025</v>
+        <v>0.00538140000000098</v>
       </c>
       <c r="Y72" t="n">
         <v>26</v>
@@ -6404,7 +6404,7 @@
         <v>0.06583751541804381</v>
       </c>
       <c r="F73" t="n">
-        <v>10.15591958336929</v>
+        <v>10.1559195833693</v>
       </c>
       <c r="G73" t="n">
         <v>34.08344745971306</v>
@@ -6437,22 +6437,22 @@
         <v>16.13097336028283</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.02610957638153298</v>
+        <v>0.02610957638153305</v>
       </c>
       <c r="R73" t="n">
-        <v>0.2086470561900474</v>
+        <v>0.2086470561900488</v>
       </c>
       <c r="S73" t="n">
-        <v>0.1771216313159138</v>
+        <v>0.1771216313159149</v>
       </c>
       <c r="T73" t="n">
-        <v>0.2813864789350396</v>
+        <v>0.2813864789350406</v>
       </c>
       <c r="U73" t="n">
-        <v>0.9791878126921157</v>
+        <v>0.979187812692115</v>
       </c>
       <c r="V73" t="n">
-        <v>0.1083681139017005</v>
+        <v>0.1083681139017002</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.0022523000000092</v>
+        <v>0.001589700000000249</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6516,25 +6516,25 @@
         <v>15.57741310411316</v>
       </c>
       <c r="P74" t="n">
-        <v>21.0813312469381</v>
+        <v>21.08133124693809</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.02696435807326718</v>
+        <v>0.02696435807326684</v>
       </c>
       <c r="R74" t="n">
-        <v>0.2726739839399382</v>
+        <v>0.2726739839399409</v>
       </c>
       <c r="S74" t="n">
         <v>0.1825500742185529</v>
       </c>
       <c r="T74" t="n">
-        <v>0.4569121838547617</v>
+        <v>0.4569121838547551</v>
       </c>
       <c r="U74" t="n">
-        <v>1.009258749052791</v>
+        <v>1.009258749052792</v>
       </c>
       <c r="V74" t="n">
-        <v>0.07902336836209407</v>
+        <v>0.07902336836209271</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.002358799999996108</v>
+        <v>0.001594100000000154</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6568,13 +6568,13 @@
         <v>359.8787062487542</v>
       </c>
       <c r="F75" t="n">
-        <v>10.58087093429205</v>
+        <v>10.58087093429206</v>
       </c>
       <c r="G75" t="n">
         <v>115.7770312577448</v>
       </c>
       <c r="H75" t="n">
-        <v>10.2824728916884</v>
+        <v>10.28247289168842</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6595,28 +6595,28 @@
         <v>11.66724248977646</v>
       </c>
       <c r="O75" t="n">
-        <v>78.03192919668228</v>
+        <v>78.0319291966823</v>
       </c>
       <c r="P75" t="n">
-        <v>12.53160634196048</v>
+        <v>12.5316063419605</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.02950678698251033</v>
+        <v>0.0295067869825109</v>
       </c>
       <c r="R75" t="n">
-        <v>0.4468093080179478</v>
+        <v>0.4468093080179098</v>
       </c>
       <c r="S75" t="n">
-        <v>0.5693150506674538</v>
+        <v>0.5693150506674162</v>
       </c>
       <c r="T75" t="n">
-        <v>0.2755582788589147</v>
+        <v>0.2755582788588883</v>
       </c>
       <c r="U75" t="n">
-        <v>0.9104769849888352</v>
+        <v>0.9104769849888348</v>
       </c>
       <c r="V75" t="n">
-        <v>0.3953577576104853</v>
+        <v>0.3953577576104911</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.007236199999994142</v>
+        <v>0.004026500000000155</v>
       </c>
       <c r="Y75" t="n">
         <v>22</v>
@@ -6683,19 +6683,19 @@
         <v>21.69021305695591</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.02868233948766769</v>
+        <v>0.02868233948766781</v>
       </c>
       <c r="R76" t="n">
-        <v>0.2643027269776385</v>
+        <v>0.2643027269776371</v>
       </c>
       <c r="S76" t="n">
-        <v>0.3043913119375583</v>
+        <v>0.3043913119375567</v>
       </c>
       <c r="T76" t="n">
         <v>0.3542801680656918</v>
       </c>
       <c r="U76" t="n">
-        <v>0.9106070517581116</v>
+        <v>0.9106070517581115</v>
       </c>
       <c r="V76" t="n">
         <v>0.03299023482909252</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.003292999999985113</v>
+        <v>0.001798700000000153</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6732,13 +6732,13 @@
         <v>359.8111615657005</v>
       </c>
       <c r="F77" t="n">
-        <v>10.25962690512051</v>
+        <v>10.2596269051205</v>
       </c>
       <c r="G77" t="n">
         <v>102.0341354439765</v>
       </c>
       <c r="H77" t="n">
-        <v>4.03422892343965</v>
+        <v>4.034228923439646</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6762,25 +6762,25 @@
         <v>41.51051728909083</v>
       </c>
       <c r="P77" t="n">
-        <v>8.858934031607518</v>
+        <v>8.858934031607514</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.0238520705490425</v>
+        <v>0.02385207054904276</v>
       </c>
       <c r="R77" t="n">
-        <v>0.1571498432109214</v>
+        <v>0.1571498432109271</v>
       </c>
       <c r="S77" t="n">
-        <v>0.156925396685244</v>
+        <v>0.1569253966852484</v>
       </c>
       <c r="T77" t="n">
-        <v>0.08782592308080392</v>
+        <v>0.08782592308080453</v>
       </c>
       <c r="U77" t="n">
         <v>0.9588773606947627</v>
       </c>
       <c r="V77" t="n">
-        <v>0.3060330160909476</v>
+        <v>0.3060330160909446</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.004923600000012129</v>
+        <v>0.00290730000000039</v>
       </c>
       <c r="Y77" t="n">
         <v>11</v>
@@ -6814,13 +6814,13 @@
         <v>359.9196831125823</v>
       </c>
       <c r="F78" t="n">
-        <v>10.0321123869555</v>
+        <v>10.03211238695551</v>
       </c>
       <c r="G78" t="n">
         <v>56.23618654254935</v>
       </c>
       <c r="H78" t="n">
-        <v>12.8806639960357</v>
+        <v>12.88066399603571</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6841,28 +6841,28 @@
         <v>21.21280471567252</v>
       </c>
       <c r="O78" t="n">
-        <v>41.18749573933475</v>
+        <v>41.18749573933476</v>
       </c>
       <c r="P78" t="n">
-        <v>21.26900620029742</v>
+        <v>21.26900620029744</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.02922633904193654</v>
+        <v>0.0292263390419369</v>
       </c>
       <c r="R78" t="n">
-        <v>0.2974709175389115</v>
+        <v>0.297470917538936</v>
       </c>
       <c r="S78" t="n">
-        <v>0.4562022654072724</v>
+        <v>0.4562022654073107</v>
       </c>
       <c r="T78" t="n">
-        <v>0.2516351092614054</v>
+        <v>0.25163510926142</v>
       </c>
       <c r="U78" t="n">
-        <v>0.9535958524653966</v>
+        <v>0.9535958524653962</v>
       </c>
       <c r="V78" t="n">
-        <v>0.06185401121686553</v>
+        <v>0.06185401121686901</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.00290440000000558</v>
+        <v>0.00185910000000078</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6896,13 +6896,13 @@
         <v>0.02468871442681446</v>
       </c>
       <c r="F79" t="n">
-        <v>9.805781310902864</v>
+        <v>9.805781310902862</v>
       </c>
       <c r="G79" t="n">
         <v>165.5604769933583</v>
       </c>
       <c r="H79" t="n">
-        <v>10.44200914505155</v>
+        <v>10.44200914505154</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6926,25 +6926,25 @@
         <v>138.9969483310217</v>
       </c>
       <c r="P79" t="n">
-        <v>6.552724123010548</v>
+        <v>6.552724123010545</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.01129913701978306</v>
+        <v>0.01129913701978305</v>
       </c>
       <c r="R79" t="n">
-        <v>0.1565670697838741</v>
+        <v>0.1565670697839592</v>
       </c>
       <c r="S79" t="n">
-        <v>0.07864091668048293</v>
+        <v>0.0786409166805231</v>
       </c>
       <c r="T79" t="n">
-        <v>0.2035546335777676</v>
+        <v>0.2035546335778782</v>
       </c>
       <c r="U79" t="n">
-        <v>0.9957079989153166</v>
+        <v>0.9957079989153158</v>
       </c>
       <c r="V79" t="n">
-        <v>0.1153803483053651</v>
+        <v>0.1153803483053666</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.00593620000000783</v>
+        <v>0.004177300000000272</v>
       </c>
       <c r="Y79" t="n">
         <v>24</v>
@@ -6981,10 +6981,10 @@
         <v>10.44841401148349</v>
       </c>
       <c r="G80" t="n">
-        <v>9.443602358999771</v>
+        <v>9.443602358999758</v>
       </c>
       <c r="H80" t="n">
-        <v>11.0203792426602</v>
+        <v>11.02037924266021</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -7008,25 +7008,25 @@
         <v>9.031603178705266</v>
       </c>
       <c r="P80" t="n">
-        <v>21.13934814469808</v>
+        <v>21.13934814469809</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.02598470017800117</v>
+        <v>0.02598470017800057</v>
       </c>
       <c r="R80" t="n">
         <v>0.3600205606466095</v>
       </c>
       <c r="S80" t="n">
-        <v>0.1302938889791974</v>
+        <v>0.1302938889791939</v>
       </c>
       <c r="T80" t="n">
-        <v>0.6197581037404341</v>
+        <v>0.6197581037404124</v>
       </c>
       <c r="U80" t="n">
         <v>1.00415152046722</v>
       </c>
       <c r="V80" t="n">
-        <v>0.1334424240892656</v>
+        <v>0.1334424240892638</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.002889600000003156</v>
+        <v>0.001894700000001137</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7066,7 +7066,7 @@
         <v>89.32478707337185</v>
       </c>
       <c r="H81" t="n">
-        <v>8.944261379548983</v>
+        <v>8.944261379548989</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7090,25 +7090,25 @@
         <v>57.32339467250641</v>
       </c>
       <c r="P81" t="n">
-        <v>14.08216208193891</v>
+        <v>14.08216208193892</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.02749565729746965</v>
+        <v>0.02749565729747095</v>
       </c>
       <c r="R81" t="n">
-        <v>0.2817639572392061</v>
+        <v>0.2817639572392523</v>
       </c>
       <c r="S81" t="n">
-        <v>0.3889999915969319</v>
+        <v>0.3889999915969907</v>
       </c>
       <c r="T81" t="n">
-        <v>0.07499362039557728</v>
+        <v>0.07499362039557975</v>
       </c>
       <c r="U81" t="n">
-        <v>0.9443429155455668</v>
+        <v>0.9443429155455677</v>
       </c>
       <c r="V81" t="n">
-        <v>0.1845798949328834</v>
+        <v>0.184579894932886</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003922499999987394</v>
+        <v>0.0027519999999992</v>
       </c>
       <c r="Y81" t="n">
         <v>15</v>
@@ -7139,7 +7139,7 @@
         <v>11.39287640417597</v>
       </c>
       <c r="E82" t="n">
-        <v>359.921023152738</v>
+        <v>359.9210231527381</v>
       </c>
       <c r="F82" t="n">
         <v>10.31165744775156</v>
@@ -7148,7 +7148,7 @@
         <v>94.68262994597889</v>
       </c>
       <c r="H82" t="n">
-        <v>11.75026858105564</v>
+        <v>11.75026858105563</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -7172,25 +7172,25 @@
         <v>66.71925565798504</v>
       </c>
       <c r="P82" t="n">
-        <v>16.55763320957924</v>
+        <v>16.55763320957922</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.02917586364545701</v>
+        <v>0.02917586364545594</v>
       </c>
       <c r="R82" t="n">
-        <v>0.3979118238408664</v>
+        <v>0.397911823840864</v>
       </c>
       <c r="S82" t="n">
-        <v>0.6255995039335761</v>
+        <v>0.6255995039335636</v>
       </c>
       <c r="T82" t="n">
-        <v>0.1153853097021136</v>
+        <v>0.1153853097021168</v>
       </c>
       <c r="U82" t="n">
-        <v>0.9541510783896081</v>
+        <v>0.954151078389609</v>
       </c>
       <c r="V82" t="n">
-        <v>0.1967492035344816</v>
+        <v>0.196749203534477</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.004941099999996368</v>
+        <v>0.003376499999999893</v>
       </c>
       <c r="Y82" t="n">
         <v>19</v>
@@ -7227,10 +7227,10 @@
         <v>10.33646856604644</v>
       </c>
       <c r="G83" t="n">
-        <v>65.80460237687342</v>
+        <v>65.80460237687343</v>
       </c>
       <c r="H83" t="n">
-        <v>7.082462901737054</v>
+        <v>7.082462901737051</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7257,22 +7257,22 @@
         <v>14.34827915440629</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.02646855803945201</v>
+        <v>0.0264685580394519</v>
       </c>
       <c r="R83" t="n">
-        <v>0.2178174080939476</v>
+        <v>0.2178174080939479</v>
       </c>
       <c r="S83" t="n">
-        <v>0.2524543338467735</v>
+        <v>0.2524543338467714</v>
       </c>
       <c r="T83" t="n">
-        <v>0.1491324834839249</v>
+        <v>0.1491324834839237</v>
       </c>
       <c r="U83" t="n">
-        <v>1.011443856437762</v>
+        <v>1.011443856437761</v>
       </c>
       <c r="V83" t="n">
-        <v>0.1295303243642913</v>
+        <v>0.129530324364285</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002538700000002336</v>
+        <v>0.001909500000000008</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7306,13 +7306,13 @@
         <v>359.8263154925136</v>
       </c>
       <c r="F84" t="n">
-        <v>9.922967086653529</v>
+        <v>9.922967086653522</v>
       </c>
       <c r="G84" t="n">
-        <v>49.03133434869296</v>
+        <v>49.03133434869294</v>
       </c>
       <c r="H84" t="n">
-        <v>10.93376667655678</v>
+        <v>10.93376667655677</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7333,28 +7333,28 @@
         <v>19.11454519061216</v>
       </c>
       <c r="O84" t="n">
-        <v>34.77627843587911</v>
+        <v>34.7762784358791</v>
       </c>
       <c r="P84" t="n">
-        <v>19.368468785211</v>
+        <v>19.36846878521098</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.02806707136303021</v>
+        <v>0.02806707136302998</v>
       </c>
       <c r="R84" t="n">
-        <v>0.2520896394741092</v>
+        <v>0.2520896394741131</v>
       </c>
       <c r="S84" t="n">
-        <v>0.3299928446497811</v>
+        <v>0.3299928446497825</v>
       </c>
       <c r="T84" t="n">
-        <v>0.2525061934861241</v>
+        <v>0.2525061934861211</v>
       </c>
       <c r="U84" t="n">
-        <v>1.077947668607048</v>
+        <v>1.077947668607049</v>
       </c>
       <c r="V84" t="n">
-        <v>0.1063960236449817</v>
+        <v>0.1063960236449773</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.004191500000018777</v>
+        <v>0.001826400000000561</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7421,16 +7421,16 @@
         <v>19.3233199162795</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.02744491821689322</v>
+        <v>0.02744491821689271</v>
       </c>
       <c r="R85" t="n">
-        <v>0.2429282351125846</v>
+        <v>0.2429282351125841</v>
       </c>
       <c r="S85" t="n">
-        <v>0.3097594031929026</v>
+        <v>0.3097594031928952</v>
       </c>
       <c r="T85" t="n">
-        <v>0.2633259893579302</v>
+        <v>0.2633259893579219</v>
       </c>
       <c r="U85" t="n">
         <v>0.9900046280073951</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.005260599999985516</v>
+        <v>0.001846500000000972</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7476,7 +7476,7 @@
         <v>7.855044915613862</v>
       </c>
       <c r="H86" t="n">
-        <v>7.401101740527603</v>
+        <v>7.401101740527602</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7500,25 +7500,25 @@
         <v>8.47379417044502</v>
       </c>
       <c r="P86" t="n">
-        <v>16.53262977619814</v>
+        <v>16.53262977619813</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.02372619939620474</v>
+        <v>0.02372619939620435</v>
       </c>
       <c r="R86" t="n">
-        <v>0.3112798826855855</v>
+        <v>0.3112798826855835</v>
       </c>
       <c r="S86" t="n">
-        <v>0.09595924742081179</v>
+        <v>0.09595924742081076</v>
       </c>
       <c r="T86" t="n">
-        <v>0.5129910215673695</v>
+        <v>0.5129910215673573</v>
       </c>
       <c r="U86" t="n">
         <v>1.117391914837499</v>
       </c>
       <c r="V86" t="n">
-        <v>0.07304616091571489</v>
+        <v>0.07304616091571511</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.00205170000000976</v>
+        <v>0.001850799999999708</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7552,13 +7552,13 @@
         <v>0.01509275487225677</v>
       </c>
       <c r="F87" t="n">
-        <v>10.17259177186449</v>
+        <v>10.17259177186448</v>
       </c>
       <c r="G87" t="n">
         <v>111.5654713530741</v>
       </c>
       <c r="H87" t="n">
-        <v>9.349242922305338</v>
+        <v>9.349242922305333</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7579,28 +7579,28 @@
         <v>11.81175051977503</v>
       </c>
       <c r="O87" t="n">
-        <v>73.52549931017272</v>
+        <v>73.52549931017271</v>
       </c>
       <c r="P87" t="n">
-        <v>12.10377624335041</v>
+        <v>12.1037762433504</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.02719404138110969</v>
+        <v>0.02719404138110743</v>
       </c>
       <c r="R87" t="n">
-        <v>0.3695547183109641</v>
+        <v>0.3695547183108956</v>
       </c>
       <c r="S87" t="n">
-        <v>0.4768618744038379</v>
+        <v>0.4768618744037516</v>
       </c>
       <c r="T87" t="n">
-        <v>0.194670551219561</v>
+        <v>0.1946705512195257</v>
       </c>
       <c r="U87" t="n">
         <v>1.020380768674572</v>
       </c>
       <c r="V87" t="n">
-        <v>0.1116142307217537</v>
+        <v>0.1116142307217514</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.007864800000021432</v>
+        <v>0.003915700000000299</v>
       </c>
       <c r="Y87" t="n">
         <v>22</v>
@@ -7640,7 +7640,7 @@
         <v>37.29541727537195</v>
       </c>
       <c r="H88" t="n">
-        <v>5.303041395183088</v>
+        <v>5.303041395183086</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7664,25 +7664,25 @@
         <v>21.93284382256817</v>
       </c>
       <c r="P88" t="n">
-        <v>13.44526244341015</v>
+        <v>13.44526244341014</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.02430600294552841</v>
+        <v>0.02430600294552842</v>
       </c>
       <c r="R88" t="n">
-        <v>0.1784858808554377</v>
+        <v>0.1784858808554369</v>
       </c>
       <c r="S88" t="n">
-        <v>0.1402972295654878</v>
+        <v>0.1402972295654868</v>
       </c>
       <c r="T88" t="n">
-        <v>0.2390375157910679</v>
+        <v>0.2390375157910666</v>
       </c>
       <c r="U88" t="n">
         <v>1.01327748854551</v>
       </c>
       <c r="V88" t="n">
-        <v>0.1506734093554428</v>
+        <v>0.1506734093554445</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003755299999994577</v>
+        <v>0.001638299999999759</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,7 +7716,7 @@
         <v>0.2161805841173744</v>
       </c>
       <c r="F89" t="n">
-        <v>9.014528426453102</v>
+        <v>9.014528426453101</v>
       </c>
       <c r="G89" t="n">
         <v>117.9547554981788</v>
@@ -7749,22 +7749,22 @@
         <v>14.56402788893456</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.02369428908989583</v>
+        <v>0.0236942890898878</v>
       </c>
       <c r="R89" t="n">
-        <v>0.4772470487041105</v>
+        <v>0.4772470487037242</v>
       </c>
       <c r="S89" t="n">
-        <v>0.7794985051151863</v>
+        <v>0.7794985051145606</v>
       </c>
       <c r="T89" t="n">
-        <v>0.44214629336134</v>
+        <v>0.4421462933609825</v>
       </c>
       <c r="U89" t="n">
         <v>1.004019612347618</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5419357124394203</v>
+        <v>0.5419357124394211</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.007438000000007605</v>
+        <v>0.00403869999999884</v>
       </c>
       <c r="Y89" t="n">
         <v>22</v>
@@ -7798,13 +7798,13 @@
         <v>359.9540052781402</v>
       </c>
       <c r="F90" t="n">
-        <v>10.53064638350995</v>
+        <v>10.53064638350994</v>
       </c>
       <c r="G90" t="n">
         <v>116.5856685834612</v>
       </c>
       <c r="H90" t="n">
-        <v>9.77122813069214</v>
+        <v>9.771228130692137</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7825,28 +7825,28 @@
         <v>11.20723949811577</v>
       </c>
       <c r="O90" t="n">
-        <v>77.10449958616712</v>
+        <v>77.10449958616714</v>
       </c>
       <c r="P90" t="n">
-        <v>11.94906622952439</v>
+        <v>11.94906622952438</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.02862244267056524</v>
+        <v>0.02862244267056201</v>
       </c>
       <c r="R90" t="n">
-        <v>0.420983084305433</v>
+        <v>0.420983084305335</v>
       </c>
       <c r="S90" t="n">
-        <v>0.5209536526638467</v>
+        <v>0.5209536526637274</v>
       </c>
       <c r="T90" t="n">
-        <v>0.2552599277182893</v>
+        <v>0.2552599277182308</v>
       </c>
       <c r="U90" t="n">
-        <v>0.9962611604595809</v>
+        <v>0.9962611604595814</v>
       </c>
       <c r="V90" t="n">
-        <v>0.3094497619083842</v>
+        <v>0.3094497619083898</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.005678399999993644</v>
+        <v>0.004041100000000242</v>
       </c>
       <c r="Y90" t="n">
         <v>22</v>
@@ -7880,13 +7880,13 @@
         <v>0.2181870231481209</v>
       </c>
       <c r="F91" t="n">
-        <v>10.01147994159323</v>
+        <v>10.01147994159322</v>
       </c>
       <c r="G91" t="n">
         <v>90.83561990189071</v>
       </c>
       <c r="H91" t="n">
-        <v>5.933576285609789</v>
+        <v>5.933576285609787</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7913,22 +7913,22 @@
         <v>11.0688355175613</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.02450280807179236</v>
+        <v>0.02450280807179265</v>
       </c>
       <c r="R91" t="n">
-        <v>0.2011904210871706</v>
+        <v>0.201190421087185</v>
       </c>
       <c r="S91" t="n">
-        <v>0.2329160436253567</v>
+        <v>0.2329160436253721</v>
       </c>
       <c r="T91" t="n">
-        <v>0.07939277423947015</v>
+        <v>0.07939277423946986</v>
       </c>
       <c r="U91" t="n">
         <v>1.039593304283968</v>
       </c>
       <c r="V91" t="n">
-        <v>0.1149319272231712</v>
+        <v>0.1149319272231725</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.003808100000014747</v>
+        <v>0.003578499999999707</v>
       </c>
       <c r="Y91" t="n">
         <v>12</v>
@@ -7962,13 +7962,13 @@
         <v>359.9066775900369</v>
       </c>
       <c r="F92" t="n">
-        <v>9.722839743193337</v>
+        <v>9.722839743193338</v>
       </c>
       <c r="G92" t="n">
-        <v>26.18025224488232</v>
+        <v>26.18025224488233</v>
       </c>
       <c r="H92" t="n">
-        <v>5.089213100609229</v>
+        <v>5.089213100609226</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7992,25 +7992,25 @@
         <v>17.00332056640227</v>
       </c>
       <c r="P92" t="n">
-        <v>13.16235560825672</v>
+        <v>13.16235560825671</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.0227220875311526</v>
+        <v>0.02272208753115255</v>
       </c>
       <c r="R92" t="n">
-        <v>0.1808404096909537</v>
+        <v>0.1808404096909521</v>
       </c>
       <c r="S92" t="n">
-        <v>0.1122735690692305</v>
+        <v>0.1122735690692308</v>
       </c>
       <c r="T92" t="n">
-        <v>0.2740957976033997</v>
+        <v>0.2740957976033988</v>
       </c>
       <c r="U92" t="n">
         <v>1.071368787568111</v>
       </c>
       <c r="V92" t="n">
-        <v>0.1741213891170391</v>
+        <v>0.174121389117037</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002292600000004086</v>
+        <v>0.001602399999999449</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8044,13 +8044,13 @@
         <v>359.844472557379</v>
       </c>
       <c r="F93" t="n">
-        <v>9.835910906594775</v>
+        <v>9.835910906594771</v>
       </c>
       <c r="G93" t="n">
         <v>36.03603343866624</v>
       </c>
       <c r="H93" t="n">
-        <v>6.886442199682399</v>
+        <v>6.886442199682396</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8071,28 +8071,28 @@
         <v>15.37253312835461</v>
       </c>
       <c r="O93" t="n">
-        <v>23.36300070128721</v>
+        <v>23.36300070128722</v>
       </c>
       <c r="P93" t="n">
-        <v>15.1435616768369</v>
+        <v>15.14356167683689</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.02500484922414277</v>
+        <v>0.02500484922414284</v>
       </c>
       <c r="R93" t="n">
-        <v>0.1911224652044418</v>
+        <v>0.1911224652044425</v>
       </c>
       <c r="S93" t="n">
-        <v>0.1669525135625007</v>
+        <v>0.1669525135625006</v>
       </c>
       <c r="T93" t="n">
-        <v>0.251891930714718</v>
+        <v>0.2518919307147187</v>
       </c>
       <c r="U93" t="n">
-        <v>0.9406653536813944</v>
+        <v>0.9406653536813948</v>
       </c>
       <c r="V93" t="n">
-        <v>0.05419718616894426</v>
+        <v>0.0541971861689465</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002589000000000397</v>
+        <v>0.001554499999999237</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8132,7 +8132,7 @@
         <v>159.5372668306335</v>
       </c>
       <c r="H94" t="n">
-        <v>12.70313151518082</v>
+        <v>12.70313151518083</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -8156,25 +8156,25 @@
         <v>135.9636180446047</v>
       </c>
       <c r="P94" t="n">
-        <v>9.362875684652817</v>
+        <v>9.362875684652824</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.01269801634393505</v>
+        <v>0.012698016343935</v>
       </c>
       <c r="R94" t="n">
-        <v>0.1816278548403846</v>
+        <v>0.1816278548403492</v>
       </c>
       <c r="S94" t="n">
-        <v>0.123368233993958</v>
+        <v>0.1233682339939342</v>
       </c>
       <c r="T94" t="n">
-        <v>0.2587687130037317</v>
+        <v>0.2587687130036812</v>
       </c>
       <c r="U94" t="n">
-        <v>0.8925523429960963</v>
+        <v>0.8925523429960969</v>
       </c>
       <c r="V94" t="n">
-        <v>0.09379865219899938</v>
+        <v>0.09379865219900244</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.005810400000001437</v>
+        <v>0.005136000000000251</v>
       </c>
       <c r="Y94" t="n">
         <v>24</v>
@@ -8214,7 +8214,7 @@
         <v>109.0668154994007</v>
       </c>
       <c r="H95" t="n">
-        <v>10.921600109754</v>
+        <v>10.92160010975399</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -8241,22 +8241,22 @@
         <v>13.89117589580032</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.0283985966045192</v>
+        <v>0.02839859660452861</v>
       </c>
       <c r="R95" t="n">
-        <v>0.4318210239481723</v>
+        <v>0.4318210239484475</v>
       </c>
       <c r="S95" t="n">
-        <v>0.6264724151076906</v>
+        <v>0.6264724151080889</v>
       </c>
       <c r="T95" t="n">
-        <v>0.2438666794956355</v>
+        <v>0.2438666794957866</v>
       </c>
       <c r="U95" t="n">
-        <v>0.9017805917284272</v>
+        <v>0.9017805917284276</v>
       </c>
       <c r="V95" t="n">
-        <v>0.02062746953553873</v>
+        <v>0.02062746953553811</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.005396999999987884</v>
+        <v>0.003867599999999527</v>
       </c>
       <c r="Y95" t="n">
         <v>22</v>
@@ -8287,16 +8287,16 @@
         <v>10.28665410746387</v>
       </c>
       <c r="E96" t="n">
-        <v>359.9887048213967</v>
+        <v>359.9887048213968</v>
       </c>
       <c r="F96" t="n">
-        <v>9.920433666906092</v>
+        <v>9.920433666906089</v>
       </c>
       <c r="G96" t="n">
         <v>129.2801200046534</v>
       </c>
       <c r="H96" t="n">
-        <v>10.19720316967732</v>
+        <v>10.19720316967731</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8320,25 +8320,25 @@
         <v>92.38459678690049</v>
       </c>
       <c r="P96" t="n">
-        <v>10.64961610458315</v>
+        <v>10.64961610458314</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.02694971594507017</v>
+        <v>0.02694971594508345</v>
       </c>
       <c r="R96" t="n">
-        <v>0.5054640686902845</v>
+        <v>0.5054640686907467</v>
       </c>
       <c r="S96" t="n">
-        <v>0.5870498224469487</v>
+        <v>0.5870498224474757</v>
       </c>
       <c r="T96" t="n">
-        <v>0.4524336153888583</v>
+        <v>0.4524336153892731</v>
       </c>
       <c r="U96" t="n">
         <v>0.9974825809209588</v>
       </c>
       <c r="V96" t="n">
-        <v>0.06383606466342059</v>
+        <v>0.06383606466342412</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.006874199999998609</v>
+        <v>0.0051414999999988</v>
       </c>
       <c r="Y96" t="n">
         <v>23</v>
@@ -8375,10 +8375,10 @@
         <v>9.993915526418267</v>
       </c>
       <c r="G97" t="n">
-        <v>40.95298802171766</v>
+        <v>40.95298802171767</v>
       </c>
       <c r="H97" t="n">
-        <v>5.366582768928134</v>
+        <v>5.366582768928133</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8402,25 +8402,25 @@
         <v>23.73586682036108</v>
       </c>
       <c r="P97" t="n">
-        <v>13.37243124343336</v>
+        <v>13.37243124343335</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.02441478999356858</v>
+        <v>0.02441478999356833</v>
       </c>
       <c r="R97" t="n">
-        <v>0.1760950921659786</v>
+        <v>0.1760950921659775</v>
       </c>
       <c r="S97" t="n">
-        <v>0.1479501823831532</v>
+        <v>0.1479501823831484</v>
       </c>
       <c r="T97" t="n">
-        <v>0.2234749046364291</v>
+        <v>0.2234749046364261</v>
       </c>
       <c r="U97" t="n">
-        <v>0.9439753646833402</v>
+        <v>0.94397536468334</v>
       </c>
       <c r="V97" t="n">
-        <v>0.05629158494775977</v>
+        <v>0.0562915849477582</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.00231560000000286</v>
+        <v>0.001643800000000084</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8451,13 +8451,13 @@
         <v>13.91402845609996</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2546941680328468</v>
+        <v>0.2546941680328595</v>
       </c>
       <c r="F98" t="n">
         <v>10.00611783418882</v>
       </c>
       <c r="G98" t="n">
-        <v>38.85493888771747</v>
+        <v>38.85493888771748</v>
       </c>
       <c r="H98" t="n">
         <v>13.37986252450208</v>
@@ -8481,28 +8481,28 @@
         <v>23.48744640074011</v>
       </c>
       <c r="O98" t="n">
-        <v>29.57129252510384</v>
+        <v>29.57129252510385</v>
       </c>
       <c r="P98" t="n">
         <v>22.87220666479914</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.02920041223467831</v>
+        <v>0.02920041223467901</v>
       </c>
       <c r="R98" t="n">
-        <v>0.2815047505702086</v>
+        <v>0.2815047505702146</v>
       </c>
       <c r="S98" t="n">
-        <v>0.3545800736072375</v>
+        <v>0.3545800736072541</v>
       </c>
       <c r="T98" t="n">
-        <v>0.3695349981042546</v>
+        <v>0.369534998104273</v>
       </c>
       <c r="U98" t="n">
-        <v>0.9675864436758664</v>
+        <v>0.9675864436758668</v>
       </c>
       <c r="V98" t="n">
-        <v>0.1491268546675978</v>
+        <v>0.1491268546675907</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.004129699999992908</v>
+        <v>0.001827399999999813</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8536,13 +8536,13 @@
         <v>0.0636102533979552</v>
       </c>
       <c r="F99" t="n">
-        <v>10.36444338496983</v>
+        <v>10.36444338496984</v>
       </c>
       <c r="G99" t="n">
         <v>150.5339215361126</v>
       </c>
       <c r="H99" t="n">
-        <v>15.27574578933192</v>
+        <v>15.27574578933194</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -8563,28 +8563,28 @@
         <v>12.59476915243944</v>
       </c>
       <c r="O99" t="n">
-        <v>128.8388632380292</v>
+        <v>128.8388632380291</v>
       </c>
       <c r="P99" t="n">
-        <v>13.09399278606959</v>
+        <v>13.09399278606961</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01500127502196227</v>
+        <v>0.01500127502196236</v>
       </c>
       <c r="R99" t="n">
-        <v>0.2361939938331726</v>
+        <v>0.2361939938331725</v>
       </c>
       <c r="S99" t="n">
-        <v>0.2340191870751256</v>
+        <v>0.2340191870751266</v>
       </c>
       <c r="T99" t="n">
         <v>0.3629033095502749</v>
       </c>
       <c r="U99" t="n">
-        <v>0.9790332786427517</v>
+        <v>0.9790332786427518</v>
       </c>
       <c r="V99" t="n">
-        <v>0.2263427593660066</v>
+        <v>0.2263427593660257</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.007832799999988538</v>
+        <v>0.005757799999999591</v>
       </c>
       <c r="Y99" t="n">
         <v>24</v>
@@ -8615,16 +8615,16 @@
         <v>9.806268185410616</v>
       </c>
       <c r="E100" t="n">
-        <v>0.220439785321295</v>
+        <v>0.2204397853212823</v>
       </c>
       <c r="F100" t="n">
-        <v>9.551444655967178</v>
+        <v>9.551444655967225</v>
       </c>
       <c r="G100" t="n">
         <v>132.2063056807814</v>
       </c>
       <c r="H100" t="n">
-        <v>9.139799163986826</v>
+        <v>9.139799163986892</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8648,25 +8648,25 @@
         <v>92.6577044242312</v>
       </c>
       <c r="P100" t="n">
-        <v>9.341405553657493</v>
+        <v>9.34140555365755</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.02441459269791595</v>
+        <v>0.02441459269790146</v>
       </c>
       <c r="R100" t="n">
-        <v>0.4558280630709877</v>
+        <v>0.4558280630704685</v>
       </c>
       <c r="S100" t="n">
-        <v>0.4971550455824983</v>
+        <v>0.4971550455819402</v>
       </c>
       <c r="T100" t="n">
-        <v>0.4086144084305682</v>
+        <v>0.4086144084301027</v>
       </c>
       <c r="U100" t="n">
         <v>1.095393557010373</v>
       </c>
       <c r="V100" t="n">
-        <v>0.2828318481959958</v>
+        <v>0.2828318481959696</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.006589200000007622</v>
+        <v>0.004493200000000641</v>
       </c>
       <c r="Y100" t="n">
         <v>26</v>
@@ -8700,13 +8700,13 @@
         <v>359.9050154555556</v>
       </c>
       <c r="F101" t="n">
-        <v>10.15875321671138</v>
+        <v>10.15875321671137</v>
       </c>
       <c r="G101" t="n">
         <v>120.9378687797005</v>
       </c>
       <c r="H101" t="n">
-        <v>9.075022806738025</v>
+        <v>9.075022806738014</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8727,28 +8727,28 @@
         <v>10.4553174329922</v>
       </c>
       <c r="O101" t="n">
-        <v>79.50672144673058</v>
+        <v>79.50672144673059</v>
       </c>
       <c r="P101" t="n">
-        <v>10.67275320441574</v>
+        <v>10.67275320441572</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.02774529639796242</v>
+        <v>0.0277452963979595</v>
       </c>
       <c r="R101" t="n">
-        <v>0.3972327144267255</v>
+        <v>0.3972327144266566</v>
       </c>
       <c r="S101" t="n">
-        <v>0.4695787244331429</v>
+        <v>0.4695787244330618</v>
       </c>
       <c r="T101" t="n">
-        <v>0.2635229958885908</v>
+        <v>0.2635229958885455</v>
       </c>
       <c r="U101" t="n">
-        <v>0.9729419654097138</v>
+        <v>0.9729419654097136</v>
       </c>
       <c r="V101" t="n">
-        <v>0.1034684266174229</v>
+        <v>0.1034684266174247</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.006148099999990109</v>
+        <v>0.004843299999999218</v>
       </c>
       <c r="Y101" t="n">
         <v>22</v>
